--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2172786.489836148</v>
+        <v>2278252.279311943</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13236035.67526076</v>
+        <v>11843801.51954496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763776.908577127</v>
+        <v>612367.9462114752</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5994525.946898374</v>
+        <v>6331477.598333935</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>290.0007186188324</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>219.3115314888539</v>
       </c>
       <c r="I2" t="n">
         <v>34.5479025439635</v>
@@ -713,19 +715,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
         <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +819,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>98.14571498472613</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>89.75153097191715</v>
       </c>
       <c r="F4" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,13 +901,13 @@
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E5" t="n">
-        <v>21.71717045362101</v>
+        <v>323.0583786986897</v>
       </c>
       <c r="F5" t="n">
-        <v>37.23149021943396</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
         <v>0.2956717864458369</v>
@@ -914,7 +916,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>1.283897344658556</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1063,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>131.8790913410172</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1102,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>112.9846345307599</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>205.6569777774024</v>
+        <v>114.6402946573878</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1291,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>104.8834068500167</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
-        <v>86.14102713523235</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
         <v>277.3826040146988</v>
@@ -1354,7 +1356,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>273.7939629118167</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1427,16 +1429,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250128</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1530,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
@@ -1576,25 +1578,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>76.34947650094023</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>93.30762551611231</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>74.53463107798548</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1625,7 +1627,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,13 +1663,13 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -1771,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>110.1277234473735</v>
       </c>
       <c r="H16" t="n">
         <v>142.3583058069271</v>
@@ -1816,7 +1818,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1828,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>180.8422450405123</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>421.7171704536211</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -2005,10 +2007,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>44.02781544003311</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
@@ -2056,13 +2058,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>230.1971588418662</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2147,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>113.8676198059458</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
@@ -2251,7 +2253,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
         <v>142.3583058069271</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -2302,7 +2304,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>240.1382575886529</v>
+        <v>13.0852218043036</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2482,19 +2484,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>98.27895796113484</v>
+        <v>45.22125567436197</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2542,7 +2544,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>51.69511841098215</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>130.4410821656388</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2950,22 +2952,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>123.9086344760393</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>77.1527951284304</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>94.8193742194649</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3196,16 +3198,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>134.280379162985</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3244,16 +3246,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3427,22 +3429,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>49.87597792716544</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,13 +3480,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>192.8717243028899</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3569,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>49.87597792716544</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>33.66472767094791</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3711,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>415.6498806486159</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>60.22716445383735</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,7 +3906,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>60.15466974967032</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.5938898061684</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>76.34241422251056</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -3992,7 +3994,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -4040,10 +4042,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>83.60134467821337</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4201,7 +4203,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.05898113484485</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>833.1270234674382</v>
+        <v>1188.638128786318</v>
       </c>
       <c r="C2" t="n">
-        <v>810.2666975211424</v>
+        <v>761.7373987996184</v>
       </c>
       <c r="D2" t="n">
-        <v>386.9740767061427</v>
+        <v>742.4851820250227</v>
       </c>
       <c r="E2" t="n">
-        <v>365.0375408944043</v>
+        <v>720.5486462132843</v>
       </c>
       <c r="F2" t="n">
-        <v>72.10752208750284</v>
+        <v>699.4648684430886</v>
       </c>
       <c r="G2" t="n">
-        <v>71.80886371735554</v>
+        <v>295.1258060325372</v>
       </c>
       <c r="H2" t="n">
-        <v>71.80886371735554</v>
+        <v>73.59900654884635</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="J2" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="K2" t="n">
-        <v>493.6978991635576</v>
+        <v>517.6410595347475</v>
       </c>
       <c r="L2" t="n">
-        <v>950.4838058662885</v>
+        <v>517.6410595347475</v>
       </c>
       <c r="M2" t="n">
-        <v>950.4838058662885</v>
+        <v>517.6410595347475</v>
       </c>
       <c r="N2" t="n">
-        <v>1389.514143537154</v>
+        <v>517.6410595347475</v>
       </c>
       <c r="O2" t="n">
-        <v>1389.514143537154</v>
+        <v>882.5260259873627</v>
       </c>
       <c r="P2" t="n">
-        <v>1389.514143537154</v>
+        <v>1361.464950229793</v>
       </c>
       <c r="Q2" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.550429733976</v>
       </c>
       <c r="R2" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="S2" t="n">
-        <v>1741.232328914477</v>
+        <v>1830.739470489018</v>
       </c>
       <c r="T2" t="n">
-        <v>1520.30675795911</v>
+        <v>1609.813899533652</v>
       </c>
       <c r="U2" t="n">
-        <v>1261.951848555523</v>
+        <v>1609.813899533652</v>
       </c>
       <c r="V2" t="n">
-        <v>1261.951848555523</v>
+        <v>1609.813899533652</v>
       </c>
       <c r="W2" t="n">
-        <v>1261.951848555523</v>
+        <v>1213.422549833999</v>
       </c>
       <c r="X2" t="n">
-        <v>1254.272253763674</v>
+        <v>1205.74295504215</v>
       </c>
       <c r="Y2" t="n">
-        <v>848.9349837185642</v>
+        <v>1204.446089037444</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>604.0354834922822</v>
+        <v>605.8256263237728</v>
       </c>
       <c r="C3" t="n">
-        <v>486.529580009787</v>
+        <v>488.3197228412776</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250719</v>
+        <v>384.4797643565626</v>
       </c>
       <c r="E3" t="n">
-        <v>277.9876877980091</v>
+        <v>279.7778306294998</v>
       </c>
       <c r="F3" t="n">
-        <v>184.3418574809132</v>
+        <v>186.132000312404</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851708</v>
+        <v>92.07822853000798</v>
       </c>
       <c r="H3" t="n">
-        <v>36.9119924608267</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>310.3996245719086</v>
       </c>
       <c r="K3" t="n">
-        <v>493.6978991635576</v>
+        <v>789.3385488143385</v>
       </c>
       <c r="L3" t="n">
-        <v>932.027809635875</v>
+        <v>1268.277473056768</v>
       </c>
       <c r="M3" t="n">
-        <v>1388.813716338606</v>
+        <v>1747.216397299198</v>
       </c>
       <c r="N3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="O3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="P3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="Q3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="R3" t="n">
-        <v>1845.599623041337</v>
+        <v>1847.389765872827</v>
       </c>
       <c r="S3" t="n">
-        <v>1764.275375602591</v>
+        <v>1766.065518434082</v>
       </c>
       <c r="T3" t="n">
-        <v>1622.39543990027</v>
+        <v>1624.18558273176</v>
       </c>
       <c r="U3" t="n">
-        <v>1437.627243819906</v>
+        <v>1439.417386651397</v>
       </c>
       <c r="V3" t="n">
-        <v>1232.654104959172</v>
+        <v>1234.444247790663</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.13272779239</v>
+        <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>872.6553815590526</v>
+        <v>874.4455243905431</v>
       </c>
       <c r="Y3" t="n">
-        <v>732.9624929123449</v>
+        <v>734.7526357438355</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>717.6838951281402</v>
+        <v>946.5645958025295</v>
       </c>
       <c r="C4" t="n">
-        <v>717.6838951281402</v>
+        <v>774.5920326814455</v>
       </c>
       <c r="D4" t="n">
-        <v>618.5468092849825</v>
+        <v>611.2752598082162</v>
       </c>
       <c r="E4" t="n">
-        <v>452.338603437836</v>
+        <v>520.6171477153706</v>
       </c>
       <c r="F4" t="n">
-        <v>280.4768292123964</v>
+        <v>348.755373489931</v>
       </c>
       <c r="G4" t="n">
-        <v>280.4768292123964</v>
+        <v>182.4984037841632</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6805607205508</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>38.70213529231756</v>
       </c>
       <c r="K4" t="n">
-        <v>304.6336537379666</v>
+        <v>265.2297364981548</v>
       </c>
       <c r="L4" t="n">
-        <v>659.3229750323874</v>
+        <v>619.9190577925756</v>
       </c>
       <c r="M4" t="n">
-        <v>1050.508770002638</v>
+        <v>1011.104852762826</v>
       </c>
       <c r="N4" t="n">
-        <v>1428.000280878674</v>
+        <v>1388.596363638862</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="Q4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="R4" t="n">
-        <v>1845.599623041337</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="S4" t="n">
-        <v>1675.464575560472</v>
+        <v>1935.106764615878</v>
       </c>
       <c r="T4" t="n">
-        <v>1432.125227786372</v>
+        <v>1691.767416841778</v>
       </c>
       <c r="U4" t="n">
-        <v>1432.125227786372</v>
+        <v>1411.582968342082</v>
       </c>
       <c r="V4" t="n">
-        <v>1150.413760394401</v>
+        <v>1411.582968342082</v>
       </c>
       <c r="W4" t="n">
-        <v>1150.413760394401</v>
+        <v>1136.730564514595</v>
       </c>
       <c r="X4" t="n">
-        <v>907.8498638402058</v>
+        <v>1136.730564514595</v>
       </c>
       <c r="Y4" t="n">
-        <v>907.8498638402058</v>
+        <v>1136.730564514595</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>436.7356737677852</v>
+        <v>1171.120452378521</v>
       </c>
       <c r="C5" t="n">
-        <v>413.8753478214894</v>
+        <v>1148.260126432225</v>
       </c>
       <c r="D5" t="n">
-        <v>394.6231310468938</v>
+        <v>724.9675056172257</v>
       </c>
       <c r="E5" t="n">
-        <v>372.6865952351554</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F5" t="n">
-        <v>335.0790293569393</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>399.5154512777223</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>856.3013579804531</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L5" t="n">
-        <v>1271.957808655251</v>
+        <v>407.101683866143</v>
       </c>
       <c r="M5" t="n">
-        <v>1271.957808655251</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N5" t="n">
-        <v>1271.957808655251</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O5" t="n">
-        <v>1271.957808655251</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P5" t="n">
-        <v>1271.957808655251</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q5" t="n">
-        <v>1728.043288159434</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>1741.232328914477</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T5" t="n">
-        <v>1520.30675795911</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="U5" t="n">
-        <v>1261.951848555523</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="V5" t="n">
-        <v>1261.951848555523</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="W5" t="n">
-        <v>865.5604988558696</v>
+        <v>2003.98568150701</v>
       </c>
       <c r="X5" t="n">
-        <v>857.8809040640209</v>
+        <v>1592.265682674757</v>
       </c>
       <c r="Y5" t="n">
-        <v>856.5840380593153</v>
+        <v>1590.968816670051</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>983.3471129133217</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>865.8412094308264</v>
       </c>
       <c r="D6" t="n">
-        <v>382.6896215250719</v>
+        <v>762.0012509461114</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980091</v>
+        <v>657.2993172190487</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809132</v>
+        <v>563.6534869019529</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851708</v>
+        <v>469.5997151195569</v>
       </c>
       <c r="H6" t="n">
-        <v>36.9119924608267</v>
+        <v>416.2236218818665</v>
       </c>
       <c r="I6" t="n">
-        <v>36.91199246082674</v>
+        <v>423.6702648437783</v>
       </c>
       <c r="J6" t="n">
-        <v>36.91199246082674</v>
+        <v>490.8953374243588</v>
       </c>
       <c r="K6" t="n">
-        <v>493.6978991635576</v>
+        <v>1041.560872408797</v>
       </c>
       <c r="L6" t="n">
-        <v>850.0084995511718</v>
+        <v>1592.226407393235</v>
       </c>
       <c r="M6" t="n">
-        <v>1306.794406253903</v>
+        <v>1592.226407393235</v>
       </c>
       <c r="N6" t="n">
-        <v>1306.794406253903</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="O6" t="n">
-        <v>1306.794406253903</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="P6" t="n">
-        <v>1763.580312956634</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>2142.891942377673</v>
       </c>
       <c r="R6" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S6" t="n">
-        <v>1764.275375602591</v>
+        <v>2143.587005023631</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>2001.707069321309</v>
       </c>
       <c r="U6" t="n">
-        <v>1437.627243819906</v>
+        <v>1816.938873240946</v>
       </c>
       <c r="V6" t="n">
-        <v>1232.654104959172</v>
+        <v>1611.965734380212</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1415.444357213429</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>1251.967010980092</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>1112.274122333384</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>782.0231349124776</v>
+        <v>928.425375395335</v>
       </c>
       <c r="C7" t="n">
-        <v>610.0505717913936</v>
+        <v>756.452812274251</v>
       </c>
       <c r="D7" t="n">
-        <v>446.7337989181643</v>
+        <v>593.1360394010217</v>
       </c>
       <c r="E7" t="n">
-        <v>446.7337989181643</v>
+        <v>593.1360394010217</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>421.2742651755821</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>94.40332068498475</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>449.0926419794055</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>840.2784369496563</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1217.769947825692</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1573.198076505455</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>1798.56100972851</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>1798.56100972851</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.22166195441</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U7" t="n">
-        <v>1441.095768488996</v>
+        <v>1727.553143168988</v>
       </c>
       <c r="V7" t="n">
-        <v>1441.095768488996</v>
+        <v>1445.841675777017</v>
       </c>
       <c r="W7" t="n">
-        <v>1441.095768488996</v>
+        <v>1170.98927194953</v>
       </c>
       <c r="X7" t="n">
-        <v>1198.531871934801</v>
+        <v>928.425375395335</v>
       </c>
       <c r="Y7" t="n">
-        <v>972.1891036245433</v>
+        <v>928.425375395335</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1416.774797953252</v>
+        <v>1438.597012500542</v>
       </c>
       <c r="C8" t="n">
-        <v>989.8740679665525</v>
+        <v>1011.696282513842</v>
       </c>
       <c r="D8" t="n">
-        <v>782.1397469792773</v>
+        <v>895.898005082137</v>
       </c>
       <c r="E8" t="n">
-        <v>356.162807127135</v>
+        <v>469.9210652299946</v>
       </c>
       <c r="F8" t="n">
-        <v>335.0790293569393</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G8" t="n">
-        <v>334.7803709867919</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>493.6978991635576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L8" t="n">
-        <v>493.6978991635576</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="M8" t="n">
-        <v>493.6978991635576</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>950.4838058662885</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="O8" t="n">
-        <v>1271.257381456703</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>1728.043288159434</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U8" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="W8" t="n">
-        <v>1845.599623041337</v>
+        <v>1867.421837588626</v>
       </c>
       <c r="X8" t="n">
-        <v>1837.920028249488</v>
+        <v>1455.701838756373</v>
       </c>
       <c r="Y8" t="n">
-        <v>1836.623162244782</v>
+        <v>1454.404972751668</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.035483492282</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C9" t="n">
-        <v>486.5295800097867</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250718</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E9" t="n">
-        <v>277.987687798009</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809131</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851715</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.35863542273858</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>316.0561247023297</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>316.0561247023297</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L9" t="n">
-        <v>772.8420314050605</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M9" t="n">
-        <v>772.8420314050605</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N9" t="n">
-        <v>1229.627938107791</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1229.627938107791</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
-        <v>1845.599623041337</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S9" t="n">
-        <v>1764.275375602591</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.395439900269</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U9" t="n">
-        <v>1437.627243819906</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V9" t="n">
-        <v>1232.654104959172</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.132727792389</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590523</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123447</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>791.6776425284911</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="C10" t="n">
-        <v>619.7050794074071</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="D10" t="n">
-        <v>456.3883065341778</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="E10" t="n">
-        <v>290.1801006870313</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>290.1801006870313</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>123.9231309812635</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J10" t="n">
-        <v>36.91199246082674</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K10" t="n">
-        <v>263.4395936666639</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L10" t="n">
-        <v>618.1289149610848</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M10" t="n">
-        <v>1009.314709931336</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.572152198911</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O10" t="n">
-        <v>1428.000280878674</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P10" t="n">
-        <v>1718.599492800575</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q10" t="n">
-        <v>1845.599623041337</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>1798.56100972851</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="S10" t="n">
-        <v>1628.425962247645</v>
+        <v>2054.776204981511</v>
       </c>
       <c r="T10" t="n">
-        <v>1628.425962247645</v>
+        <v>1811.43685720741</v>
       </c>
       <c r="U10" t="n">
-        <v>1348.241513747949</v>
+        <v>1531.252408707715</v>
       </c>
       <c r="V10" t="n">
-        <v>1066.530046355978</v>
+        <v>1249.540941315744</v>
       </c>
       <c r="W10" t="n">
-        <v>791.6776425284911</v>
+        <v>974.6885374882565</v>
       </c>
       <c r="X10" t="n">
-        <v>791.6776425284911</v>
+        <v>732.1246409340616</v>
       </c>
       <c r="Y10" t="n">
-        <v>791.6776425284911</v>
+        <v>732.1246409340616</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C11" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D11" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E11" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F11" t="n">
-        <v>809.5885619560448</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G11" t="n">
-        <v>405.2494995454934</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H11" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I11" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>435.087708579895</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K11" t="n">
-        <v>1150.596016555394</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L11" t="n">
-        <v>1150.596016555394</v>
+        <v>1031.927761025105</v>
       </c>
       <c r="M11" t="n">
-        <v>2047.588607372513</v>
+        <v>2036.213862444163</v>
       </c>
       <c r="N11" t="n">
-        <v>2205.426023613078</v>
+        <v>3012.464920930865</v>
       </c>
       <c r="O11" t="n">
-        <v>3050.57067376389</v>
+        <v>3857.609571081677</v>
       </c>
       <c r="P11" t="n">
-        <v>3050.57067376389</v>
+        <v>4565.888850239604</v>
       </c>
       <c r="Q11" t="n">
-        <v>3506.656153268073</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R11" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S11" t="n">
-        <v>3624.212488149976</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T11" t="n">
-        <v>3403.286917194609</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U11" t="n">
-        <v>3144.932007791022</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>2787.442592917271</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W11" t="n">
-        <v>2787.442592917271</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X11" t="n">
-        <v>2787.442592917271</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y11" t="n">
-        <v>2787.442592917271</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C12" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D12" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E12" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F12" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G12" t="n">
-        <v>125.8603430006899</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H12" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I12" t="n">
-        <v>72.48424976299953</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>72.48424976299953</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K12" t="n">
-        <v>72.48424976299953</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="L12" t="n">
-        <v>909.2830578459057</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="M12" t="n">
-        <v>1806.275648663025</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="N12" t="n">
-        <v>1806.275648663025</v>
+        <v>475.3442790273841</v>
       </c>
       <c r="O12" t="n">
-        <v>1806.275648663025</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P12" t="n">
-        <v>1881.171880343509</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q12" t="n">
-        <v>1881.171880343509</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R12" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S12" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T12" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U12" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V12" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W12" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X12" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y12" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1155.665372287236</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="C13" t="n">
-        <v>983.6928091661523</v>
+        <v>1013.511272808981</v>
       </c>
       <c r="D13" t="n">
-        <v>820.376036292923</v>
+        <v>850.1944999357521</v>
       </c>
       <c r="E13" t="n">
-        <v>654.1678304457765</v>
+        <v>683.9862940886056</v>
       </c>
       <c r="F13" t="n">
-        <v>482.306056220337</v>
+        <v>512.124519863166</v>
       </c>
       <c r="G13" t="n">
-        <v>316.0490865145691</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H13" t="n">
-        <v>172.2528180227235</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I13" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K13" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L13" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M13" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N13" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O13" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P13" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q13" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S13" t="n">
-        <v>2205.858663863301</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T13" t="n">
-        <v>2205.858663863301</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U13" t="n">
-        <v>2128.737980529018</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V13" t="n">
-        <v>1847.026513137047</v>
+        <v>1540.491264859194</v>
       </c>
       <c r="W13" t="n">
-        <v>1572.17410930956</v>
+        <v>1446.241138075242</v>
       </c>
       <c r="X13" t="n">
-        <v>1572.17410930956</v>
+        <v>1203.677241521047</v>
       </c>
       <c r="Y13" t="n">
-        <v>1345.831340999302</v>
+        <v>1203.677241521047</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2124.372939316637</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C14" t="n">
-        <v>2049.085433177258</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D14" t="n">
-        <v>1625.792812362258</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E14" t="n">
-        <v>1199.815872510116</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F14" t="n">
-        <v>774.6916906995161</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G14" t="n">
-        <v>370.3526282889647</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H14" t="n">
-        <v>72.48424976299953</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I14" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>72.48424976299953</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K14" t="n">
-        <v>88.09006554780694</v>
+        <v>1082.193820490623</v>
       </c>
       <c r="L14" t="n">
-        <v>985.082656364926</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M14" t="n">
-        <v>1882.075247182045</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N14" t="n">
-        <v>2779.067837999164</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O14" t="n">
-        <v>3624.212488149976</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P14" t="n">
-        <v>3624.212488149976</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q14" t="n">
-        <v>3624.212488149976</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R14" t="n">
-        <v>3624.212488149976</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S14" t="n">
-        <v>3519.845194023117</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T14" t="n">
-        <v>3298.91962306775</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U14" t="n">
-        <v>3298.91962306775</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V14" t="n">
-        <v>2941.430208194</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W14" t="n">
-        <v>2941.430208194</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X14" t="n">
-        <v>2529.710209361747</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y14" t="n">
-        <v>2124.372939316637</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2382.648348600922</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C15" t="n">
-        <v>2265.142445118426</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D15" t="n">
-        <v>2161.302486633711</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E15" t="n">
-        <v>2056.600552906649</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F15" t="n">
-        <v>1962.954722589553</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G15" t="n">
-        <v>1868.900950807157</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H15" t="n">
-        <v>1815.524857569466</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>1822.971500531378</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J15" t="n">
-        <v>1822.971500531378</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K15" t="n">
-        <v>2413.456427099718</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L15" t="n">
-        <v>2413.456427099718</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M15" t="n">
-        <v>2413.456427099718</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N15" t="n">
-        <v>3310.449017916837</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O15" t="n">
-        <v>3624.212488149976</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P15" t="n">
-        <v>3624.212488149976</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q15" t="n">
-        <v>3624.212488149976</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R15" t="n">
-        <v>3624.212488149976</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S15" t="n">
-        <v>3542.888240711231</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T15" t="n">
-        <v>3401.008305008909</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U15" t="n">
-        <v>3216.240108928545</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V15" t="n">
-        <v>3011.266970067812</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W15" t="n">
-        <v>2814.745592901029</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X15" t="n">
-        <v>2651.268246667692</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y15" t="n">
-        <v>2511.575358020984</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>826.1403935668606</v>
+        <v>795.2884438199453</v>
       </c>
       <c r="C16" t="n">
-        <v>654.1678304457765</v>
+        <v>623.3158806988613</v>
       </c>
       <c r="D16" t="n">
-        <v>654.1678304457765</v>
+        <v>623.3158806988613</v>
       </c>
       <c r="E16" t="n">
-        <v>654.1678304457765</v>
+        <v>457.1076748517148</v>
       </c>
       <c r="F16" t="n">
-        <v>482.306056220337</v>
+        <v>457.1076748517148</v>
       </c>
       <c r="G16" t="n">
-        <v>316.0490865145691</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H16" t="n">
-        <v>172.2528180227235</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I16" t="n">
-        <v>72.48424976299953</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K16" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L16" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M16" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N16" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O16" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P16" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q16" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R16" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S16" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.723616382436</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.53916788274</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V16" t="n">
-        <v>1473.827700490769</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W16" t="n">
-        <v>1198.975296663282</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X16" t="n">
-        <v>1016.306362278926</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.306362278926</v>
+        <v>985.454412532011</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5515,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>464.906172222724</v>
+        <v>338.6504695827671</v>
       </c>
       <c r="K17" t="n">
-        <v>464.906172222724</v>
+        <v>1054.158777558266</v>
       </c>
       <c r="L17" t="n">
-        <v>1394.531219842001</v>
+        <v>1983.783825177543</v>
       </c>
       <c r="M17" t="n">
-        <v>2398.817321261059</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="N17" t="n">
         <v>2988.069926596601</v>
@@ -5598,16 +5600,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L18" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M18" t="n">
-        <v>939.1015214887346</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N18" t="n">
-        <v>939.1015214887346</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O18" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P18" t="n">
         <v>1910.990343986338</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>374.0438447866366</v>
+        <v>603.8002552472883</v>
       </c>
       <c r="C19" t="n">
-        <v>202.0712816655526</v>
+        <v>431.8276921262043</v>
       </c>
       <c r="D19" t="n">
-        <v>202.0712816655526</v>
+        <v>268.510919252975</v>
       </c>
       <c r="E19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5695,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2238.243199970439</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2068.108152489574</v>
       </c>
       <c r="T19" t="n">
-        <v>1822.202732251165</v>
+        <v>1824.768804715474</v>
       </c>
       <c r="U19" t="n">
-        <v>1589.680349582613</v>
+        <v>1544.584356215778</v>
       </c>
       <c r="V19" t="n">
-        <v>1307.968882190642</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="W19" t="n">
-        <v>1033.116478363155</v>
+        <v>1262.872888823807</v>
       </c>
       <c r="X19" t="n">
-        <v>790.5525818089602</v>
+        <v>1020.308992269612</v>
       </c>
       <c r="Y19" t="n">
-        <v>564.2098134987023</v>
+        <v>793.966223959354</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5734,16 @@
         <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
         <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
         <v>137.1995846623573</v>
@@ -5750,7 +5752,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J20" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
         <v>1180.414480198223</v>
@@ -5765,22 +5767,22 @@
         <v>4090.576687723259</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>4289.300056251597</v>
       </c>
       <c r="P20" t="n">
-        <v>4935.721337874071</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q20" t="n">
-        <v>5115.135670291426</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R20" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
@@ -5832,16 +5834,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K21" t="n">
-        <v>692.7876399741681</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>692.7876399741681</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.79262694784</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="N21" t="n">
-        <v>1194.79262694784</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="O21" t="n">
         <v>1194.79262694784</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>796.0638950398506</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="C22" t="n">
-        <v>681.046097256067</v>
+        <v>847.303066961835</v>
       </c>
       <c r="D22" t="n">
-        <v>517.7293243828377</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="E22" t="n">
-        <v>517.7293243828377</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F22" t="n">
-        <v>345.8675501573982</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G22" t="n">
         <v>345.8675501573982</v>
@@ -5908,52 +5910,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J22" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K22" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L22" t="n">
         <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338096</v>
       </c>
       <c r="T22" t="n">
-        <v>2065.542080025265</v>
+        <v>1869.241345563996</v>
       </c>
       <c r="U22" t="n">
-        <v>1785.357631525569</v>
+        <v>1589.0568970643</v>
       </c>
       <c r="V22" t="n">
-        <v>1503.646164133598</v>
+        <v>1307.345429672329</v>
       </c>
       <c r="W22" t="n">
-        <v>1228.793760306111</v>
+        <v>1032.493025844842</v>
       </c>
       <c r="X22" t="n">
-        <v>986.2298637519162</v>
+        <v>1019.275630082919</v>
       </c>
       <c r="Y22" t="n">
-        <v>986.2298637519162</v>
+        <v>1019.275630082919</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>1082.193820490624</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.818868109901</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M23" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N23" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O23" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P23" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q23" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6063,19 +6065,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L24" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1165.735894343786</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1185.483835930065</v>
+        <v>609.4538236255814</v>
       </c>
       <c r="C25" t="n">
-        <v>1013.511272808982</v>
+        <v>437.4812605044974</v>
       </c>
       <c r="D25" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2235.67712750613</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T25" t="n">
-        <v>1992.33777973203</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U25" t="n">
-        <v>1992.33777973203</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1893.066105023813</v>
+        <v>1543.378861029587</v>
       </c>
       <c r="W25" t="n">
-        <v>1618.213701196326</v>
+        <v>1268.5264572021</v>
       </c>
       <c r="X25" t="n">
-        <v>1375.649804642131</v>
+        <v>1025.962560647905</v>
       </c>
       <c r="Y25" t="n">
-        <v>1375.649804642131</v>
+        <v>799.6197923376471</v>
       </c>
     </row>
     <row r="26">
@@ -6227,22 +6229,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
         <v>4997.579335409525</v>
@@ -6300,19 +6302,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L27" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M27" t="n">
-        <v>1165.735894343786</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>326.3817789554925</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="C28" t="n">
-        <v>274.1644876312681</v>
+        <v>563.5863609803849</v>
       </c>
       <c r="D28" t="n">
-        <v>274.1644876312681</v>
+        <v>400.2695881071556</v>
       </c>
       <c r="E28" t="n">
-        <v>274.1644876312681</v>
+        <v>234.0613822600092</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T28" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V28" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W28" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X28" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y28" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="29">
@@ -6470,16 +6472,16 @@
         <v>1747.436069000604</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N29" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O29" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6549,7 +6551,7 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N30" t="n">
         <v>1910.990343986338</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>575.6727244766713</v>
+        <v>3899.49916549545</v>
       </c>
       <c r="C31" t="n">
-        <v>575.6727244766713</v>
+        <v>3727.526602374366</v>
       </c>
       <c r="D31" t="n">
-        <v>412.355951603442</v>
+        <v>3564.209829501137</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>3398.00162365399</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>3226.139849428551</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>3059.882879722783</v>
       </c>
       <c r="H31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="I31" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J31" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K31" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L31" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M31" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N31" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O31" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P31" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S31" t="n">
-        <v>2112.580693338092</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T31" t="n">
-        <v>1869.241345563992</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="U31" t="n">
-        <v>1791.309229272648</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="V31" t="n">
-        <v>1509.597761880677</v>
+        <v>4833.424202899456</v>
       </c>
       <c r="W31" t="n">
-        <v>1234.74535805319</v>
+        <v>4558.571799071969</v>
       </c>
       <c r="X31" t="n">
-        <v>992.1814614989948</v>
+        <v>4316.007902517774</v>
       </c>
       <c r="Y31" t="n">
-        <v>765.8386931887369</v>
+        <v>4089.665134207516</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>464.9061722227241</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K32" t="n">
-        <v>1180.414480198223</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L32" t="n">
-        <v>2110.0395278175</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M32" t="n">
-        <v>3114.325629236558</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N32" t="n">
-        <v>4090.576687723259</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O32" t="n">
-        <v>4935.721337874071</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q32" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6786,10 +6788,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>1021.509065974867</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N33" t="n">
-        <v>1021.509065974867</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.72140846125</v>
+        <v>1109.288418485209</v>
       </c>
       <c r="C34" t="n">
-        <v>733.72140846125</v>
+        <v>1013.511272808982</v>
       </c>
       <c r="D34" t="n">
-        <v>570.4046355880207</v>
+        <v>850.1944999357522</v>
       </c>
       <c r="E34" t="n">
-        <v>404.1964297408742</v>
+        <v>683.9862940886057</v>
       </c>
       <c r="F34" t="n">
-        <v>404.1964297408742</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G34" t="n">
-        <v>237.9394600351064</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H34" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>2039.376393044857</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1759.191944545161</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1477.48047715319</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.628073325703</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="X34" t="n">
-        <v>960.064176771508</v>
+        <v>1299.454387197274</v>
       </c>
       <c r="Y34" t="n">
-        <v>733.72140846125</v>
+        <v>1299.454387197274</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>435.0679631883222</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
@@ -6938,25 +6940,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K35" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L35" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M35" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N35" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O35" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7011,25 +7013,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>1537.033091018986</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N36" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P36" t="n">
         <v>1910.990343986338</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>496.5168264363576</v>
+        <v>4017.903765402536</v>
       </c>
       <c r="C37" t="n">
-        <v>324.5442633152736</v>
+        <v>3845.931202281452</v>
       </c>
       <c r="D37" t="n">
-        <v>324.5442633152736</v>
+        <v>3682.614429408222</v>
       </c>
       <c r="E37" t="n">
-        <v>274.1644876312681</v>
+        <v>3516.406223561076</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>3344.544449335636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>3178.287479629868</v>
       </c>
       <c r="H37" t="n">
-        <v>102.3027134058285</v>
+        <v>3034.491211138023</v>
       </c>
       <c r="I37" t="n">
-        <v>102.3027134058285</v>
+        <v>2934.722642878299</v>
       </c>
       <c r="J37" t="n">
-        <v>159.7940416299866</v>
+        <v>2992.213971102457</v>
       </c>
       <c r="K37" t="n">
-        <v>386.3216428358238</v>
+        <v>3218.741572308294</v>
       </c>
       <c r="L37" t="n">
-        <v>741.0109641302445</v>
+        <v>3573.430893602715</v>
       </c>
       <c r="M37" t="n">
-        <v>1132.196759100495</v>
+        <v>3964.616688572966</v>
       </c>
       <c r="N37" t="n">
-        <v>1509.688269976531</v>
+        <v>4342.108199449001</v>
       </c>
       <c r="O37" t="n">
-        <v>1865.116398656294</v>
+        <v>4697.536328128765</v>
       </c>
       <c r="P37" t="n">
-        <v>2155.715610578195</v>
+        <v>4988.135540050665</v>
       </c>
       <c r="Q37" t="n">
-        <v>2282.715740818957</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R37" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S37" t="n">
-        <v>2235.67712750613</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="T37" t="n">
-        <v>1992.33777973203</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="U37" t="n">
-        <v>1712.153331232334</v>
+        <v>4871.796322517327</v>
       </c>
       <c r="V37" t="n">
-        <v>1430.441863840363</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="W37" t="n">
-        <v>1155.589460012876</v>
+        <v>4676.976398979054</v>
       </c>
       <c r="X37" t="n">
-        <v>913.0255634586812</v>
+        <v>4434.41250242486</v>
       </c>
       <c r="Y37" t="n">
-        <v>686.6827951484232</v>
+        <v>4208.069734114601</v>
       </c>
     </row>
     <row r="38">
@@ -7184,13 +7186,13 @@
         <v>3114.325629236558</v>
       </c>
       <c r="N38" t="n">
-        <v>3114.325629236558</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O38" t="n">
-        <v>3959.47027938737</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P38" t="n">
-        <v>4541.493855905342</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="Q38" t="n">
         <v>4997.579335409525</v>
@@ -7217,7 +7219,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I39" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J39" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K39" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L39" t="n">
-        <v>971.931772215671</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>971.931772215671</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N39" t="n">
-        <v>971.931772215671</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O39" t="n">
-        <v>971.931772215671</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P39" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q39" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.5168264363576</v>
+        <v>881.4186312826794</v>
       </c>
       <c r="C40" t="n">
-        <v>324.5442633152736</v>
+        <v>709.4460681615953</v>
       </c>
       <c r="D40" t="n">
-        <v>324.5442633152736</v>
+        <v>546.1292952883661</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>546.1292952883661</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7342,40 +7344,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506134</v>
       </c>
       <c r="S40" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025269</v>
       </c>
       <c r="T40" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="U40" t="n">
-        <v>1712.153331232334</v>
+        <v>1822.202732251169</v>
       </c>
       <c r="V40" t="n">
-        <v>1430.441863840363</v>
+        <v>1540.491264859198</v>
       </c>
       <c r="W40" t="n">
-        <v>1155.589460012876</v>
+        <v>1540.491264859198</v>
       </c>
       <c r="X40" t="n">
-        <v>913.0255634586812</v>
+        <v>1297.927368305003</v>
       </c>
       <c r="Y40" t="n">
-        <v>686.6827951484232</v>
+        <v>1071.584599994745</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2510.883034420487</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C41" t="n">
-        <v>2083.982304433787</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D41" t="n">
-        <v>1660.689683618787</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E41" t="n">
-        <v>1234.712743766645</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F41" t="n">
-        <v>809.5885619560449</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>405.2494995454935</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H41" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I41" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K41" t="n">
-        <v>1150.596016555394</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>1445.298803788844</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M41" t="n">
-        <v>2342.291394605963</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N41" t="n">
-        <v>2342.291394605963</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O41" t="n">
-        <v>2342.291394605963</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P41" t="n">
-        <v>3050.570673763891</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q41" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R41" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S41" t="n">
-        <v>3624.212488149977</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T41" t="n">
-        <v>3403.28691719461</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U41" t="n">
-        <v>3403.28691719461</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>3403.28691719461</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W41" t="n">
-        <v>3403.28691719461</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X41" t="n">
-        <v>2991.566918362358</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2930.731398712017</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C42" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D42" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E42" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F42" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G42" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J42" t="n">
-        <v>344.1817390425906</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K42" t="n">
-        <v>520.0338126636108</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L42" t="n">
-        <v>520.0338126636108</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="M42" t="n">
-        <v>520.0338126636108</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N42" t="n">
-        <v>1417.02640348073</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O42" t="n">
-        <v>1417.02640348073</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P42" t="n">
-        <v>1417.02640348073</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R42" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S42" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T42" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U42" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V42" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W42" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X42" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y42" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>545.8054969752209</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="C43" t="n">
-        <v>545.8054969752209</v>
+        <v>326.3817789554925</v>
       </c>
       <c r="D43" t="n">
-        <v>382.4887241019916</v>
+        <v>163.0650060822632</v>
       </c>
       <c r="E43" t="n">
-        <v>216.2805182548452</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F43" t="n">
-        <v>216.2805182548452</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G43" t="n">
-        <v>216.2805182548452</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I43" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K43" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L43" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M43" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N43" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O43" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P43" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2205.858663863301</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S43" t="n">
-        <v>2035.723616382436</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T43" t="n">
-        <v>1792.384268608336</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U43" t="n">
-        <v>1512.19982010864</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V43" t="n">
-        <v>1230.488352716669</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W43" t="n">
-        <v>955.6359488891819</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X43" t="n">
-        <v>713.072052334987</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y43" t="n">
-        <v>545.8054969752209</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1866.83558479923</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C44" t="n">
-        <v>1439.93485481253</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D44" t="n">
-        <v>1362.821305092822</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E44" t="n">
-        <v>936.8443652406795</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F44" t="n">
-        <v>511.7201834300797</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G44" t="n">
-        <v>107.3811210195283</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H44" t="n">
-        <v>107.3811210195283</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I44" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>435.087708579895</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K44" t="n">
-        <v>435.087708579895</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L44" t="n">
-        <v>1332.080299397014</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M44" t="n">
-        <v>1497.146744455151</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N44" t="n">
-        <v>1497.146744455151</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O44" t="n">
-        <v>2342.291394605963</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P44" t="n">
-        <v>3050.570673763891</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q44" t="n">
-        <v>3506.656153268074</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R44" t="n">
-        <v>3624.212488149977</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S44" t="n">
-        <v>3519.845194023118</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T44" t="n">
-        <v>3298.919623067751</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U44" t="n">
-        <v>3040.564713664163</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>2683.075298790412</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W44" t="n">
-        <v>2286.68394909076</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X44" t="n">
-        <v>2286.68394909076</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2286.68394909076</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>639.6077407944548</v>
+        <v>669.4262044372838</v>
       </c>
       <c r="C45" t="n">
-        <v>522.1018373119596</v>
+        <v>551.9203009547886</v>
       </c>
       <c r="D45" t="n">
-        <v>418.2618788272446</v>
+        <v>448.0803424700736</v>
       </c>
       <c r="E45" t="n">
-        <v>313.5599451001818</v>
+        <v>343.3784087430108</v>
       </c>
       <c r="F45" t="n">
-        <v>219.9141147830859</v>
+        <v>249.7325784259149</v>
       </c>
       <c r="G45" t="n">
-        <v>125.86034300069</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J45" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K45" t="n">
-        <v>527.5451254692584</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="L45" t="n">
-        <v>527.5451254692584</v>
+        <v>692.7876399741681</v>
       </c>
       <c r="M45" t="n">
-        <v>527.5451254692584</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="N45" t="n">
-        <v>527.5451254692584</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="O45" t="n">
-        <v>1417.02640348073</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="P45" t="n">
-        <v>1417.02640348073</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R45" t="n">
-        <v>1881.171880343509</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="S45" t="n">
-        <v>1799.847632904764</v>
+        <v>1829.666096547593</v>
       </c>
       <c r="T45" t="n">
-        <v>1657.967697202442</v>
+        <v>1687.786160845271</v>
       </c>
       <c r="U45" t="n">
-        <v>1473.199501122079</v>
+        <v>1503.017964764908</v>
       </c>
       <c r="V45" t="n">
-        <v>1268.226362261345</v>
+        <v>1298.044825904174</v>
       </c>
       <c r="W45" t="n">
-        <v>1071.704985094562</v>
+        <v>1101.523448737391</v>
       </c>
       <c r="X45" t="n">
-        <v>908.2276388612252</v>
+        <v>938.0461025040541</v>
       </c>
       <c r="Y45" t="n">
-        <v>768.5347502145175</v>
+        <v>798.3532138573465</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>989.4084025814685</v>
+        <v>675.4412927363924</v>
       </c>
       <c r="C46" t="n">
-        <v>817.4358394603845</v>
+        <v>675.4412927363924</v>
       </c>
       <c r="D46" t="n">
-        <v>654.1190665871552</v>
+        <v>512.1245198631631</v>
       </c>
       <c r="E46" t="n">
-        <v>487.9108607400087</v>
+        <v>512.1245198631631</v>
       </c>
       <c r="F46" t="n">
-        <v>316.0490865145692</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G46" t="n">
-        <v>316.0490865145692</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H46" t="n">
-        <v>172.2528180227236</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I46" t="n">
-        <v>72.48424976299954</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>129.9755779871575</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K46" t="n">
-        <v>356.5031791929947</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L46" t="n">
-        <v>711.1925004874155</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M46" t="n">
-        <v>1102.378295457666</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N46" t="n">
-        <v>1479.869806333702</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O46" t="n">
-        <v>1835.297935013465</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P46" t="n">
-        <v>2125.897146935366</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2252.897277176128</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2252.897277176128</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S46" t="n">
-        <v>2252.897277176128</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T46" t="n">
-        <v>2009.557929402028</v>
+        <v>1981.096277319999</v>
       </c>
       <c r="U46" t="n">
-        <v>1729.373480902332</v>
+        <v>1700.911828820303</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.373480902332</v>
+        <v>1419.200361428332</v>
       </c>
       <c r="W46" t="n">
-        <v>1454.521077074845</v>
+        <v>1144.347957600845</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.95718052065</v>
+        <v>901.7840610466503</v>
       </c>
       <c r="Y46" t="n">
-        <v>1179.574371293534</v>
+        <v>675.4412927363924</v>
       </c>
     </row>
   </sheetData>
@@ -7979,28 +7981,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K2" t="n">
-        <v>497.1645065551435</v>
+        <v>519.5412919487788</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>480.7446103807745</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>405.9616325404839</v>
       </c>
       <c r="P2" t="n">
-        <v>37.5753618102313</v>
+        <v>521.3520529642008</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,19 +8057,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7991395936675</v>
+        <v>506.1759249873028</v>
       </c>
       <c r="L3" t="n">
-        <v>465.2725720398026</v>
+        <v>506.2917778681991</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>506.8734716662975</v>
       </c>
       <c r="N3" t="n">
-        <v>482.7429339738759</v>
+        <v>122.5282489949851</v>
       </c>
       <c r="O3" t="n">
         <v>23.17188972222222</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K4" t="n">
-        <v>233.3185262234007</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8149,13 +8151,13 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>315.9153581548562</v>
+        <v>215.393196917838</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,22 +8218,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>458.1670431142373</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M5" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P5" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q5" t="n">
         <v>496.8170781441769</v>
@@ -8289,28 +8291,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>88.51522805109136</v>
       </c>
       <c r="K6" t="n">
-        <v>483.7991395936675</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>382.424784075456</v>
+        <v>578.7428998298237</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O6" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>483.1707469651629</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
         <v>22.7470382889785</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8389,7 +8391,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P7" t="n">
-        <v>169.2509181278045</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q7" t="n">
         <v>152.9025226039384</v>
@@ -8453,28 +8455,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>497.1645065551435</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>361.4046720736148</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
-        <v>498.9752675705655</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
@@ -8535,25 +8537,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>23.09678051232798</v>
+        <v>579.3245936279221</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>465.9489063640446</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>182.5645565894896</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
@@ -8620,7 +8622,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N10" t="n">
-        <v>84.64530730648448</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O10" t="n">
         <v>381.5174992961649</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K11" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L11" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>943.4843849369258</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>196.7113564107742</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>496.8170781441769</v>
+        <v>472.1756697257294</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8763,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>391.6870344996402</v>
       </c>
       <c r="L12" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>929.1499025498221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
-        <v>97.42360047804561</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q12" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R12" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>51.5280510824936</v>
+        <v>659.2874778330913</v>
       </c>
       <c r="L14" t="n">
-        <v>944.365164470117</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>943.4843849369258</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>943.3327448719401</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>618.848654609434</v>
+        <v>299.8008876868062</v>
       </c>
       <c r="L15" t="n">
         <v>22.51508671422956</v>
@@ -9015,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>927.3961502510357</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>340.1046879375144</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>395.6860795026527</v>
+        <v>268.1550667350194</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L17" t="n">
         <v>977.3272420480539</v>
@@ -9173,7 +9175,7 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N17" t="n">
-        <v>632.4842746885287</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9246,19 +9248,19 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L18" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O18" t="n">
-        <v>281.4457336203087</v>
+        <v>749.810964578424</v>
       </c>
       <c r="P18" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9413,16 +9415,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O20" t="n">
-        <v>891.0724241548241</v>
+        <v>238.1216346371742</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>217.3512730059673</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,19 +9482,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K21" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>530.1725249301787</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>281.4457336203087</v>
       </c>
       <c r="P21" t="n">
         <v>745.2028786174529</v>
@@ -9635,22 +9637,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
       </c>
       <c r="O23" t="n">
-        <v>891.0724241548241</v>
+        <v>262.439123722643</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9659,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N24" t="n">
-        <v>774.1253005797566</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9875,10 +9877,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9890,10 +9892,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
         <v>153.7764225027789</v>
@@ -9948,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
         <v>20.61111433333334</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N27" t="n">
-        <v>774.1253005797566</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>304.4845953330648</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>753.0089771212694</v>
+        <v>466.324307620685</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10197,10 +10199,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>1089.749849175</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N30" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O30" t="n">
         <v>23.17188972222222</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
@@ -10364,13 +10366,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
-        <v>100.0581876036193</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10434,13 +10436,13 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>951.5880457335786</v>
+        <v>749.7358553685299</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10586,10 +10588,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,28 +10661,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L36" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>400.8313794692496</v>
       </c>
       <c r="N36" t="n">
-        <v>58.21512474482097</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>22.7470382889785</v>
@@ -10832,16 +10834,16 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>625.4779643536372</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>496.8170781441769</v>
+        <v>98.60750039798609</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10896,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J39" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K39" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L39" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N39" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
-        <v>418.6332501171365</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,16 +11065,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>335.9916254967138</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>943.4843849369261</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>763.5414113871921</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11136,19 +11138,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
-        <v>200.027591026283</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>784.1890535317962</v>
       </c>
       <c r="M42" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>927.3961502510359</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11297,13 +11299,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>630.9692526488932</v>
       </c>
       <c r="L44" t="n">
-        <v>944.3651644701172</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>204.1650457864388</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
@@ -11376,19 +11378,19 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>482.0566840416756</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>784.7707473298946</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
         <v>21.77084120482866</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.855917736798</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23464,25 +23466,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>201.0331275137585</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>178.7962542730998</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>348.0970916088474</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23549,13 +23551,13 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23659,13 +23661,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>54.46667656133671</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>59.2960125481406</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
@@ -23908,7 +23910,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>2.540411739665473</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>47.1854451728326</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>56.38521768392735</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>227.0530357843493</v>
       </c>
       <c r="Y22" t="n">
         <v>224.0793406271554</v>
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>180.6153947569165</v>
+        <v>233.6730970436894</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>118.557719078891</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>39.70207431754633</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>18.44967133088781</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24886,13 +24888,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>200.2298088862684</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>75.43346327040824</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>8.077926643942106</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>114.6701458615095</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -25366,13 +25368,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>86.02262841516148</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>114.6701458615095</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>136.4784288122373</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>341.0567328908212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>170.2528374898731</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>104.3914540390047</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -25801,7 +25803,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>58.48545082098693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>342.7172803843391</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>157.3046096181456</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>192.0203594923105</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>540238.0125968689</v>
+        <v>541155.9399776547</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>540238.0125968689</v>
+        <v>544127.9874566527</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>540238.0125968689</v>
+        <v>544127.9874566527</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>436544.8998481384</v>
+        <v>549041.0563372027</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>436544.8998481384</v>
+        <v>549041.0563372027</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>549041.0563372025</v>
+        <v>549041.0563372027</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>549041.0563372025</v>
+        <v>549041.0563372027</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>549041.0563372025</v>
+        <v>549041.0563372027</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>436544.8998481385</v>
+        <v>549041.0563372027</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>436544.8998481386</v>
+        <v>549041.0563372027</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>509637.3345097678</v>
       </c>
       <c r="E2" t="n">
-        <v>391028.3185382718</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="F2" t="n">
-        <v>391028.3185382716</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="G2" t="n">
+        <v>491776.6027452661</v>
+      </c>
+      <c r="H2" t="n">
+        <v>491776.6027452662</v>
+      </c>
+      <c r="I2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="H2" t="n">
-        <v>491776.6027452664</v>
-      </c>
-      <c r="I2" t="n">
-        <v>491776.6027452664</v>
-      </c>
       <c r="J2" t="n">
-        <v>491776.6027452663</v>
+        <v>491776.6027452662</v>
       </c>
       <c r="K2" t="n">
         <v>491776.6027452664</v>
       </c>
       <c r="L2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452663</v>
       </c>
       <c r="M2" t="n">
+        <v>491776.6027452663</v>
+      </c>
+      <c r="N2" t="n">
+        <v>491776.602745266</v>
+      </c>
+      <c r="O2" t="n">
         <v>491776.6027452662</v>
       </c>
-      <c r="N2" t="n">
-        <v>491776.6027452662</v>
-      </c>
-      <c r="O2" t="n">
-        <v>391028.3185382718</v>
-      </c>
       <c r="P2" t="n">
-        <v>391028.3185382718</v>
+        <v>491776.6027452665</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154625.7206181205</v>
+        <v>162124.6960695917</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23406.83367361173</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>132763.6680096019</v>
+        <v>215739.3565566405</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102159.9200943099</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>120722.5169427569</v>
+        <v>126577.2685802892</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>18646.6003570194</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>110809.3601091334</v>
+        <v>180063.8714551676</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191810.9398986468</v>
+        <v>187607.6695456097</v>
       </c>
       <c r="C4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>191810.9398986468</v>
+        <v>173998.4022791778</v>
       </c>
       <c r="E4" t="n">
-        <v>46140.42348557887</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="F4" t="n">
-        <v>46140.42348557887</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187963</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="H4" t="n">
         <v>58064.51385187964</v>
@@ -26454,10 +26456,10 @@
         <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>46140.42348557887</v>
+        <v>58064.51385187959</v>
       </c>
       <c r="P4" t="n">
-        <v>46140.42348557887</v>
+        <v>58064.51385187964</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>61680.71427022832</v>
+        <v>63041.22282216135</v>
       </c>
       <c r="C5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="D5" t="n">
-        <v>61680.71427022832</v>
+        <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="F5" t="n">
-        <v>55088.02981987964</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842967</v>
       </c>
       <c r="H5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="I5" t="n">
         <v>77750.06218842969</v>
@@ -26506,10 +26508,10 @@
         <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="P5" t="n">
-        <v>55088.02981987965</v>
+        <v>77750.06218842969</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101519.9597227722</v>
+        <v>96863.74607240502</v>
       </c>
       <c r="C6" t="n">
-        <v>256145.6803408926</v>
+        <v>244785.8475195502</v>
       </c>
       <c r="D6" t="n">
-        <v>256145.6803408926</v>
+        <v>268192.6811931619</v>
       </c>
       <c r="E6" t="n">
-        <v>157036.1972232114</v>
+        <v>140222.6701483166</v>
       </c>
       <c r="F6" t="n">
-        <v>289799.8652328131</v>
+        <v>355962.026704957</v>
       </c>
       <c r="G6" t="n">
-        <v>253802.1066106472</v>
+        <v>355962.0267049568</v>
       </c>
       <c r="H6" t="n">
+        <v>355962.0267049569</v>
+      </c>
+      <c r="I6" t="n">
+        <v>355962.026704957</v>
+      </c>
+      <c r="J6" t="n">
+        <v>229384.7581246676</v>
+      </c>
+      <c r="K6" t="n">
+        <v>337315.4263479377</v>
+      </c>
+      <c r="L6" t="n">
+        <v>355962.026704957</v>
+      </c>
+      <c r="M6" t="n">
+        <v>175898.1552497894</v>
+      </c>
+      <c r="N6" t="n">
+        <v>355962.0267049567</v>
+      </c>
+      <c r="O6" t="n">
+        <v>355962.026704957</v>
+      </c>
+      <c r="P6" t="n">
         <v>355962.0267049571</v>
-      </c>
-      <c r="I6" t="n">
-        <v>355962.0267049571</v>
-      </c>
-      <c r="J6" t="n">
-        <v>235239.5097622001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>355962.0267049571</v>
-      </c>
-      <c r="L6" t="n">
-        <v>355962.0267049571</v>
-      </c>
-      <c r="M6" t="n">
-        <v>245152.6665958235</v>
-      </c>
-      <c r="N6" t="n">
-        <v>355962.0267049569</v>
-      </c>
-      <c r="O6" t="n">
-        <v>289799.8652328133</v>
-      </c>
-      <c r="P6" t="n">
-        <v>289799.8652328133</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="F4" t="n">
-        <v>906.0531220374941</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26826,10 +26828,10 @@
         <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="P4" t="n">
-        <v>906.0531220374943</v>
+        <v>1278.783917572857</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>72.45112196162461</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>372.7307955353625</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162461</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>72.45112196162461</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>444.6532162771599</v>
+        <v>722.5561044572624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>372.7307955353625</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,22 +27381,22 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>130.8722213736613</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>75.57816325185161</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>63.53789015977087</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>74.79459281675783</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
         <v>224.0793406271554</v>
@@ -27619,13 +27621,13 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98.65879175493131</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>383.6414497730598</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,10 +27785,10 @@
         <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>32.71530866769297</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>164.3979694839389</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>213.4027168294473</v>
+        <v>304.4193999494619</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27910,13 +27912,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28011,25 +28013,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>65.36943063985649</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>56.2172786716948</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>224.0793406271554</v>
@@ -34699,28 +34701,28 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>368.5706731844598</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,19 +34777,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="L3" t="n">
-        <v>442.7574853255731</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>483.7766911539695</v>
       </c>
       <c r="N3" t="n">
-        <v>461.3999057603342</v>
+        <v>101.1852207814434</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>212.3538717706887</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34869,13 +34871,13 @@
         <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>293.5345574968697</v>
+        <v>193.0123962598515</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,22 +34938,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>419.8550006816143</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q5" t="n">
         <v>460.6924035395789</v>
@@ -35009,28 +35011,28 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>67.90411371775802</v>
       </c>
       <c r="K6" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>359.9096973612264</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35109,7 +35111,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P7" t="n">
-        <v>146.870117469818</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q7" t="n">
         <v>128.2829598391535</v>
@@ -35173,28 +35175,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>324.0137127175907</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P8" t="n">
-        <v>461.3999057603342</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,7 +35248,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
@@ -35255,25 +35257,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>160.7937153846609</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
@@ -35340,7 +35342,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N10" t="n">
-        <v>63.89640633088408</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O10" t="n">
         <v>359.0183117977405</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>906.0531220374941</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>159.4317335763281</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>460.6924035395789</v>
+        <v>436.0509951211314</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>369.2878006663069</v>
       </c>
       <c r="L12" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>906.0531220374941</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
-        <v>75.65275927321696</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>15.76345028768426</v>
+        <v>623.522877038282</v>
       </c>
       <c r="L14" t="n">
-        <v>906.0531220374941</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>906.0531220374941</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>906.0531220374941</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>596.4494207761006</v>
+        <v>277.4016538534729</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>906.0531220374941</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>316.9327982152922</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>366.2661200170662</v>
+        <v>238.7351072494329</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L17" t="n">
         <v>939.015199615431</v>
@@ -35893,7 +35895,7 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N17" t="n">
-        <v>595.2046518540826</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35966,19 +35968,19 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O18" t="n">
-        <v>258.2738438980865</v>
+        <v>726.6390748562018</v>
       </c>
       <c r="P18" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36133,16 +36135,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O20" t="n">
-        <v>853.6814647988001</v>
+        <v>200.7306752811501</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.2265984013693</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>507.0757444178507</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>258.2738438980865</v>
       </c>
       <c r="P21" t="n">
         <v>723.4320374126243</v>
@@ -36285,7 +36287,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>395.137166636617</v>
+        <v>395.1371666366211</v>
       </c>
       <c r="N22" t="n">
         <v>381.3045564404402</v>
@@ -36355,22 +36357,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
       </c>
       <c r="O23" t="n">
-        <v>853.6814647988001</v>
+        <v>225.0481643666189</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
@@ -36379,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N24" t="n">
-        <v>752.782272366215</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36610,10 +36612,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
         <v>118.7437726079824</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N27" t="n">
-        <v>752.782272366215</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>267.053332433633</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>715.433615311038</v>
+        <v>428.7489458104537</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1066.653068662672</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N30" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
@@ -37084,13 +37086,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P32" t="n">
-        <v>62.48282579338804</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>928.4912652212506</v>
+        <v>726.6390748562019</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37306,10 +37308,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>377.7345989569216</v>
       </c>
       <c r="N36" t="n">
-        <v>36.8720965312793</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37552,16 +37554,16 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>587.9026025434059</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>460.6924035395789</v>
+        <v>62.48282579338804</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
-        <v>396.8624089123078</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37712,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404443</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
@@ -37783,16 +37785,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>297.6795830640909</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>906.0531220374943</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>726.1504520311679</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>177.6283571929497</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>906.0531220374943</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>595.2046518540839</v>
       </c>
       <c r="L44" t="n">
-        <v>906.0531220374943</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>166.733782887007</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38096,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>459.6574502083423</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>761.6739668175666</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_4_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2278252.279311943</v>
+        <v>2277555.618106852</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11843801.51954496</v>
+        <v>11843801.51954497</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>612367.9462114752</v>
+        <v>612367.9462114753</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6331477.598333935</v>
+        <v>6331477.598333936</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>134.3111092022249</v>
       </c>
       <c r="C2" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D2" t="n">
         <v>19.05969460684969</v>
@@ -670,16 +670,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
-        <v>219.3115314888539</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
         <v>392.4274362026566</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.2528374898731</v>
@@ -825,19 +825,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>89.75153097191715</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>23.68952449668592</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -882,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>415.6498806486147</v>
+        <v>252.7858021392462</v>
       </c>
       <c r="C5" t="n">
         <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>323.0583786986897</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T5" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>1.283897344658556</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C7" t="n">
         <v>170.2528374898731</v>
@@ -1062,13 +1062,13 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>131.8790913410172</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>142.3583058069271</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>271.4531867278519</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
@@ -1135,10 +1135,10 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
-        <v>114.6402946573878</v>
+        <v>217.0772816663271</v>
       </c>
       <c r="E8" t="n">
         <v>421.717170453621</v>
@@ -1147,13 +1147,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
         <v>1.283897344658556</v>
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>104.8834068500167</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
         <v>170.1431564831852</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>218.7757544134941</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>294.8896947407063</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1429,7 +1429,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>353.9145207250128</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
         <v>392.4274362026566</v>
@@ -1530,25 +1530,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>93.30762551611231</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U14" t="n">
-        <v>255.7713603095518</v>
+        <v>255.771360309553</v>
       </c>
       <c r="V14" t="n">
         <v>353.914520725013</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>110.1277234473735</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686788</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1830,10 +1830,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -2007,13 +2007,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.02781544003311</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -2064,7 +2064,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
         <v>240.1382575886529</v>
@@ -2134,7 +2134,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458144</v>
       </c>
       <c r="U20" t="n">
         <v>255.7713603095518</v>
@@ -2149,7 +2149,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
-        <v>13.0852218043036</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -2481,13 +2481,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>98.15366458399268</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>45.22125567436197</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>130.4410821656388</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T28" t="n">
         <v>240.905954296359</v>
@@ -2955,19 +2955,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>123.9086344760393</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
         <v>278.8943527180514</v>
@@ -3189,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>94.8193742194649</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T34" t="n">
         <v>240.905954296359</v>
@@ -3246,16 +3246,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3426,7 +3426,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3441,10 +3441,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>117.1479462018502</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>192.8717243028899</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
@@ -3556,7 +3556,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>218.7163152458135</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -3571,7 +3571,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446598</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3666,22 +3666,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>33.66472767094791</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486159</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3900,13 +3900,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>60.15466974967032</v>
+        <v>98.15366458399269</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -3982,7 +3982,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>83.60134467821337</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>212.453617293334</v>
       </c>
       <c r="W46" t="n">
         <v>272.1038797892121</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1188.638128786318</v>
+        <v>932.2144580460985</v>
       </c>
       <c r="C2" t="n">
-        <v>761.7373987996184</v>
+        <v>909.3541320998027</v>
       </c>
       <c r="D2" t="n">
-        <v>742.4851820250227</v>
+        <v>890.101915325207</v>
       </c>
       <c r="E2" t="n">
-        <v>720.5486462132843</v>
+        <v>868.1653795134686</v>
       </c>
       <c r="F2" t="n">
-        <v>699.4648684430886</v>
+        <v>443.0411977028688</v>
       </c>
       <c r="G2" t="n">
-        <v>295.1258060325372</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="H2" t="n">
-        <v>73.59900654884635</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I2" t="n">
-        <v>38.70213529231756</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J2" t="n">
-        <v>38.70213529231756</v>
+        <v>401.3055941092129</v>
       </c>
       <c r="K2" t="n">
-        <v>517.6410595347475</v>
+        <v>880.2445183516409</v>
       </c>
       <c r="L2" t="n">
-        <v>517.6410595347475</v>
+        <v>880.2445183516409</v>
       </c>
       <c r="M2" t="n">
-        <v>517.6410595347475</v>
+        <v>882.5260259873571</v>
       </c>
       <c r="N2" t="n">
-        <v>517.6410595347475</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="O2" t="n">
-        <v>882.5260259873627</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="P2" t="n">
-        <v>1361.464950229793</v>
+        <v>1361.464950229785</v>
       </c>
       <c r="Q2" t="n">
-        <v>1817.550429733976</v>
+        <v>1817.550429733968</v>
       </c>
       <c r="R2" t="n">
-        <v>1935.106764615878</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="S2" t="n">
-        <v>1830.739470489018</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="T2" t="n">
-        <v>1609.813899533652</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="U2" t="n">
-        <v>1609.813899533652</v>
+        <v>1830.739470489011</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.813899533652</v>
+        <v>1473.25005561526</v>
       </c>
       <c r="W2" t="n">
-        <v>1213.422549833999</v>
+        <v>1076.858705915607</v>
       </c>
       <c r="X2" t="n">
-        <v>1205.74295504215</v>
+        <v>1069.179111123759</v>
       </c>
       <c r="Y2" t="n">
-        <v>1204.446089037444</v>
+        <v>1067.882245119053</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.8256263237728</v>
+        <v>605.8256263237727</v>
       </c>
       <c r="C3" t="n">
-        <v>488.3197228412776</v>
+        <v>488.3197228412774</v>
       </c>
       <c r="D3" t="n">
-        <v>384.4797643565626</v>
+        <v>384.4797643565624</v>
       </c>
       <c r="E3" t="n">
-        <v>279.7778306294998</v>
+        <v>279.7778306294996</v>
       </c>
       <c r="F3" t="n">
-        <v>186.132000312404</v>
+        <v>186.1320003124038</v>
       </c>
       <c r="G3" t="n">
-        <v>92.07822853000798</v>
+        <v>92.07822853000783</v>
       </c>
       <c r="H3" t="n">
-        <v>38.70213529231756</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="I3" t="n">
-        <v>38.70213529231756</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J3" t="n">
-        <v>310.3996245719086</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K3" t="n">
-        <v>789.3385488143385</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="L3" t="n">
-        <v>1268.277473056768</v>
+        <v>517.6410595347454</v>
       </c>
       <c r="M3" t="n">
-        <v>1747.216397299198</v>
+        <v>517.6410595347454</v>
       </c>
       <c r="N3" t="n">
-        <v>1847.389765872827</v>
+        <v>517.6410595347454</v>
       </c>
       <c r="O3" t="n">
-        <v>1847.389765872827</v>
+        <v>904.3053647676199</v>
       </c>
       <c r="P3" t="n">
-        <v>1847.389765872827</v>
+        <v>1383.244289010048</v>
       </c>
       <c r="Q3" t="n">
         <v>1847.389765872827</v>
@@ -4451,10 +4451,10 @@
         <v>1037.92287062388</v>
       </c>
       <c r="X3" t="n">
-        <v>874.4455243905431</v>
+        <v>874.445524390543</v>
       </c>
       <c r="Y3" t="n">
-        <v>734.7526357438355</v>
+        <v>734.7526357438354</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>946.5645958025295</v>
+        <v>473.7600395463547</v>
       </c>
       <c r="C4" t="n">
-        <v>774.5920326814455</v>
+        <v>301.7874764252707</v>
       </c>
       <c r="D4" t="n">
-        <v>611.2752598082162</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="E4" t="n">
-        <v>520.6171477153706</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="F4" t="n">
-        <v>348.755373489931</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="G4" t="n">
-        <v>182.4984037841632</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="H4" t="n">
-        <v>38.70213529231756</v>
+        <v>138.4707035520414</v>
       </c>
       <c r="I4" t="n">
-        <v>38.70213529231756</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="J4" t="n">
-        <v>38.70213529231756</v>
+        <v>38.70213529231741</v>
       </c>
       <c r="K4" t="n">
-        <v>265.2297364981548</v>
+        <v>265.2297364981546</v>
       </c>
       <c r="L4" t="n">
-        <v>619.9190577925756</v>
+        <v>619.9190577925754</v>
       </c>
       <c r="M4" t="n">
         <v>1011.104852762826</v>
@@ -4506,34 +4506,34 @@
         <v>1744.024492318625</v>
       </c>
       <c r="P4" t="n">
-        <v>1935.106764615878</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="Q4" t="n">
-        <v>1935.106764615878</v>
+        <v>1935.106764615871</v>
       </c>
       <c r="R4" t="n">
-        <v>1935.106764615878</v>
+        <v>1911.177951992956</v>
       </c>
       <c r="S4" t="n">
-        <v>1935.106764615878</v>
+        <v>1741.04290451209</v>
       </c>
       <c r="T4" t="n">
-        <v>1691.767416841778</v>
+        <v>1497.70355673799</v>
       </c>
       <c r="U4" t="n">
-        <v>1411.582968342082</v>
+        <v>1217.519108238295</v>
       </c>
       <c r="V4" t="n">
-        <v>1411.582968342082</v>
+        <v>1217.519108238295</v>
       </c>
       <c r="W4" t="n">
-        <v>1136.730564514595</v>
+        <v>942.6667044108076</v>
       </c>
       <c r="X4" t="n">
-        <v>1136.730564514595</v>
+        <v>700.1028078566127</v>
       </c>
       <c r="Y4" t="n">
-        <v>1136.730564514595</v>
+        <v>473.7600395463547</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1171.120452378521</v>
+        <v>568.8670150191533</v>
       </c>
       <c r="C5" t="n">
-        <v>1148.260126432225</v>
+        <v>546.0066890728575</v>
       </c>
       <c r="D5" t="n">
-        <v>724.9675056172257</v>
+        <v>526.7544722982618</v>
       </c>
       <c r="E5" t="n">
-        <v>398.6459109720846</v>
+        <v>504.8179364865234</v>
       </c>
       <c r="F5" t="n">
-        <v>377.5621332018889</v>
+        <v>483.7341587163277</v>
       </c>
       <c r="G5" t="n">
-        <v>377.2634748317415</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
         <v>79.39509630577632</v>
@@ -4567,52 +4567,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J5" t="n">
-        <v>407.101683866143</v>
+        <v>116.829168004879</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>667.4947029893171</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>957.7672188505812</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>957.7672188505812</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="O5" t="n">
-        <v>1100.603903091853</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="P5" t="n">
-        <v>1651.269438076291</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S5" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T5" t="n">
-        <v>2003.98568150701</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U5" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V5" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="W5" t="n">
-        <v>2003.98568150701</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="X5" t="n">
-        <v>1592.265682674757</v>
+        <v>1229.54347914431</v>
       </c>
       <c r="Y5" t="n">
-        <v>1590.968816670051</v>
+        <v>824.2062090992</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C6" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D6" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E6" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F6" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G6" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H6" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>423.6702648437783</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>490.8953374243588</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K6" t="n">
-        <v>1041.560872408797</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L6" t="n">
-        <v>1592.226407393235</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="M6" t="n">
-        <v>1592.226407393235</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="N6" t="n">
-        <v>2142.891942377673</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="O6" t="n">
-        <v>2142.891942377673</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P6" t="n">
-        <v>2142.891942377673</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>2142.891942377673</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S6" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T6" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U6" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V6" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W6" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X6" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y6" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>928.425375395335</v>
+        <v>961.4223778677166</v>
       </c>
       <c r="C7" t="n">
-        <v>756.452812274251</v>
+        <v>789.4498147466326</v>
       </c>
       <c r="D7" t="n">
-        <v>593.1360394010217</v>
+        <v>626.1330418734033</v>
       </c>
       <c r="E7" t="n">
-        <v>593.1360394010217</v>
+        <v>459.9248360262568</v>
       </c>
       <c r="F7" t="n">
-        <v>421.2742651755821</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="G7" t="n">
         <v>288.0630618008172</v>
@@ -4725,52 +4725,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J7" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T7" t="n">
-        <v>2007.737591668684</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U7" t="n">
-        <v>1727.553143168988</v>
+        <v>1950.716114353435</v>
       </c>
       <c r="V7" t="n">
-        <v>1445.841675777017</v>
+        <v>1669.004646961464</v>
       </c>
       <c r="W7" t="n">
-        <v>1170.98927194953</v>
+        <v>1394.152243133977</v>
       </c>
       <c r="X7" t="n">
-        <v>928.425375395335</v>
+        <v>1151.588346579782</v>
       </c>
       <c r="Y7" t="n">
-        <v>928.425375395335</v>
+        <v>1151.588346579782</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1438.597012500542</v>
+        <v>1874.83396633247</v>
       </c>
       <c r="C8" t="n">
-        <v>1011.696282513842</v>
+        <v>1851.973640386174</v>
       </c>
       <c r="D8" t="n">
-        <v>895.898005082137</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
-        <v>469.9210652299946</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,16 +4807,16 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>44.49822504924753</v>
+        <v>572.914647509062</v>
       </c>
       <c r="L8" t="n">
-        <v>595.1637600336857</v>
+        <v>572.914647509062</v>
       </c>
       <c r="M8" t="n">
-        <v>1145.829295018124</v>
+        <v>572.914647509062</v>
       </c>
       <c r="N8" t="n">
-        <v>1145.829295018124</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
         <v>1674.245717477938</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="V8" t="n">
-        <v>1867.421837588626</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="W8" t="n">
-        <v>1867.421837588626</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="X8" t="n">
-        <v>1455.701838756373</v>
+        <v>1891.938792588301</v>
       </c>
       <c r="Y8" t="n">
-        <v>1454.404972751668</v>
+        <v>1890.641926583596</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L9" t="n">
-        <v>316.1957143288386</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M9" t="n">
-        <v>866.8612493132769</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>732.1246409340616</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>626.1818057320246</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
-        <v>626.1818057320246</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
         <v>626.1818057320246</v>
@@ -4986,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2054.776204981511</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T10" t="n">
-        <v>1811.43685720741</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="U10" t="n">
-        <v>1531.252408707715</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="V10" t="n">
-        <v>1249.540941315744</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="W10" t="n">
-        <v>974.6885374882565</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>732.1246409340616</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>732.1246409340616</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C11" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D11" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E11" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F11" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988747</v>
       </c>
       <c r="G11" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883233</v>
       </c>
       <c r="H11" t="n">
         <v>137.1995846623573</v>
@@ -5041,52 +5041,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J11" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K11" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L11" t="n">
-        <v>1031.927761025105</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M11" t="n">
-        <v>2036.213862444163</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N11" t="n">
-        <v>3012.464920930865</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O11" t="n">
-        <v>3857.609571081677</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P11" t="n">
-        <v>4565.888850239604</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q11" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R11" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S11" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T11" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U11" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V11" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W11" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X11" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="12">
@@ -5120,19 +5120,19 @@
         <v>109.7493563677404</v>
       </c>
       <c r="J12" t="n">
-        <v>109.7493563677404</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K12" t="n">
-        <v>475.3442790273841</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L12" t="n">
-        <v>475.3442790273841</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="M12" t="n">
-        <v>475.3442790273841</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="N12" t="n">
-        <v>475.3442790273841</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O12" t="n">
         <v>1364.825557038856</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1013.511272808981</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C13" t="n">
-        <v>1013.511272808981</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D13" t="n">
-        <v>850.1944999357521</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E13" t="n">
-        <v>683.9862940886056</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F13" t="n">
-        <v>512.124519863166</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G13" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H13" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I13" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J13" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K13" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L13" t="n">
         <v>741.0109641302445</v>
@@ -5223,28 +5223,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R13" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S13" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T13" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U13" t="n">
-        <v>1822.202732251165</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V13" t="n">
-        <v>1540.491264859194</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W13" t="n">
-        <v>1446.241138075242</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X13" t="n">
-        <v>1203.677241521047</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y13" t="n">
-        <v>1203.677241521047</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="14">
@@ -5278,37 +5278,37 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J14" t="n">
-        <v>464.906172222724</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K14" t="n">
-        <v>1082.193820490623</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.8188681099</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.8188681099</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N14" t="n">
-        <v>2988.069926596601</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="O14" t="n">
-        <v>3833.214576747413</v>
+        <v>3959.47027938737</v>
       </c>
       <c r="P14" t="n">
-        <v>4541.493855905341</v>
+        <v>4667.749558545297</v>
       </c>
       <c r="Q14" t="n">
-        <v>4997.579335409524</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R14" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S14" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T14" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U14" t="n">
         <v>4531.487895805612</v>
@@ -5354,31 +5354,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I15" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J15" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K15" t="n">
-        <v>648.6278400003578</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L15" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M15" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N15" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O15" t="n">
-        <v>648.6278400003578</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P15" t="n">
-        <v>1364.825557038856</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q15" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R15" t="n">
         <v>1910.990343986338</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>795.2884438199453</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C16" t="n">
-        <v>623.3158806988613</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D16" t="n">
-        <v>623.3158806988613</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E16" t="n">
-        <v>457.1076748517148</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F16" t="n">
-        <v>457.1076748517148</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G16" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H16" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I16" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J16" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K16" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L16" t="n">
-        <v>741.0109641302445</v>
+        <v>741.0109641302482</v>
       </c>
       <c r="M16" t="n">
-        <v>1132.196759100495</v>
+        <v>1132.196759100499</v>
       </c>
       <c r="N16" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976535</v>
       </c>
       <c r="O16" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656298</v>
       </c>
       <c r="P16" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578199</v>
       </c>
       <c r="Q16" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R16" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S16" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T16" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U16" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V16" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W16" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X16" t="n">
-        <v>985.454412532011</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.454412532011</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5503,49 +5503,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H17" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I17" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J17" t="n">
-        <v>338.6504695827671</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K17" t="n">
-        <v>1054.158777558266</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L17" t="n">
-        <v>1983.783825177543</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>2988.069926596601</v>
+        <v>2585.460682495986</v>
       </c>
       <c r="N17" t="n">
-        <v>2988.069926596601</v>
+        <v>3561.711740982687</v>
       </c>
       <c r="O17" t="n">
-        <v>3833.214576747413</v>
+        <v>4406.8563911335</v>
       </c>
       <c r="P17" t="n">
-        <v>4541.493855905341</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409524</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R17" t="n">
-        <v>5115.135670291426</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S17" t="n">
-        <v>5010.768376164567</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T17" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U17" t="n">
         <v>4531.487895805612</v>
@@ -5557,7 +5557,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X17" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y17" t="n">
         <v>2960.549862354846</v>
@@ -5591,31 +5591,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="M18" t="n">
-        <v>102.3027134058285</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="N18" t="n">
-        <v>1191.617659878699</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>648.6278400003578</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>603.8002552472883</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C19" t="n">
-        <v>431.8276921262043</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D19" t="n">
-        <v>268.510919252975</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E19" t="n">
-        <v>102.3027134058285</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F19" t="n">
         <v>102.3027134058285</v>
@@ -5673,10 +5673,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J19" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K19" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L19" t="n">
         <v>741.0109641302445</v>
@@ -5697,28 +5697,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R19" t="n">
-        <v>2238.243199970439</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S19" t="n">
-        <v>2068.108152489574</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T19" t="n">
-        <v>1824.768804715474</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U19" t="n">
-        <v>1544.584356215778</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V19" t="n">
-        <v>1262.872888823807</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W19" t="n">
-        <v>1262.872888823807</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X19" t="n">
-        <v>1020.308992269612</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y19" t="n">
-        <v>793.966223959354</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="20">
@@ -5761,16 +5761,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5782,19 +5782,19 @@
         <v>5010.768376164568</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
         <v>2960.549862354846</v>
@@ -5828,25 +5828,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="M21" t="n">
-        <v>939.1015214887346</v>
+        <v>1437.433383623377</v>
       </c>
       <c r="N21" t="n">
-        <v>939.1015214887346</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P21" t="n">
         <v>1910.990343986338</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1019.275630082919</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C22" t="n">
-        <v>847.303066961835</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D22" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E22" t="n">
-        <v>683.9862940886057</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F22" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5919,43 +5919,43 @@
         <v>741.0109641302445</v>
       </c>
       <c r="M22" t="n">
-        <v>1132.196759100499</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R22" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.580693338096</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T22" t="n">
-        <v>1869.241345563996</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U22" t="n">
-        <v>1589.0568970643</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V22" t="n">
-        <v>1307.345429672329</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W22" t="n">
-        <v>1032.493025844842</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X22" t="n">
-        <v>1019.275630082919</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y22" t="n">
-        <v>1019.275630082919</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>3950.770911629316</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>4659.050190787244</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6065,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="M24" t="n">
-        <v>821.6753975134684</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P24" t="n">
         <v>1910.990343986338</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>609.4538236255814</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C25" t="n">
-        <v>437.4812605044974</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E25" t="n">
-        <v>274.1644876312681</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="F25" t="n">
         <v>102.3027134058285</v>
@@ -6183,16 +6183,16 @@
         <v>1589.056897064296</v>
       </c>
       <c r="V25" t="n">
-        <v>1543.378861029587</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W25" t="n">
-        <v>1268.5264572021</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X25" t="n">
-        <v>1025.962560647905</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y25" t="n">
-        <v>799.6197923376471</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="26">
@@ -6229,25 +6229,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>102.3027134058285</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1007.532766690843</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2011.818868109901</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,22 +6302,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>1021.509065974867</v>
       </c>
       <c r="O27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>563.5863609803849</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C28" t="n">
-        <v>563.5863609803849</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D28" t="n">
-        <v>400.2695881071556</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E28" t="n">
-        <v>234.0613822600092</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F28" t="n">
         <v>102.3027134058285</v>
@@ -6411,25 +6411,25 @@
         <v>2282.715740818957</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906429</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y28" t="n">
-        <v>563.5863609803849</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="29">
@@ -6463,25 +6463,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P29" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
         <v>4997.579335409525</v>
@@ -6551,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N30" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O30" t="n">
-        <v>1910.990343986338</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q30" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3899.49916549545</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C31" t="n">
-        <v>3727.526602374366</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D31" t="n">
-        <v>3564.209829501137</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E31" t="n">
-        <v>3398.00162365399</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F31" t="n">
-        <v>3226.139849428551</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G31" t="n">
-        <v>3059.882879722783</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I31" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J31" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K31" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L31" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M31" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N31" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O31" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P31" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>5115.135670291427</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T31" t="n">
-        <v>5115.135670291427</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U31" t="n">
-        <v>5115.135670291427</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V31" t="n">
-        <v>4833.424202899456</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W31" t="n">
-        <v>4558.571799071969</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X31" t="n">
-        <v>4316.007902517774</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y31" t="n">
-        <v>4089.665134207516</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1747.436069000604</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M32" t="n">
-        <v>2751.722170419663</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N32" t="n">
-        <v>3727.973228906364</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O32" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R32" t="n">
         <v>5115.135670291427</v>
@@ -6776,22 +6776,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I33" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J33" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K33" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L33" t="n">
-        <v>102.3027134058285</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="O33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1109.288418485209</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C34" t="n">
-        <v>1013.511272808982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D34" t="n">
-        <v>850.1944999357522</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V34" t="n">
-        <v>1542.018283751469</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W34" t="n">
-        <v>1542.018283751469</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X34" t="n">
-        <v>1299.454387197274</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y34" t="n">
-        <v>1299.454387197274</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C35" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D35" t="n">
         <v>1690.508147261616</v>
@@ -6925,49 +6925,49 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F35" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G35" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H35" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I35" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K35" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2011.818868109901</v>
+        <v>2129.375202991802</v>
       </c>
       <c r="N35" t="n">
-        <v>2988.069926596602</v>
+        <v>3105.626261478503</v>
       </c>
       <c r="O35" t="n">
-        <v>3833.214576747414</v>
+        <v>3950.770911629315</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787243</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="R35" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S35" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T35" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U35" t="n">
         <v>4531.487895805612</v>
@@ -6979,7 +6979,7 @@
         <v>3777.607131232208</v>
       </c>
       <c r="X35" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y35" t="n">
         <v>2960.549862354846</v>
@@ -7013,31 +7013,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>109.7493563677404</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K36" t="n">
-        <v>700.2342829360799</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L36" t="n">
-        <v>1537.033091018986</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M36" t="n">
-        <v>1910.990343986338</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q36" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R36" t="n">
         <v>1910.990343986338</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4017.903765402536</v>
+        <v>888.2776948471594</v>
       </c>
       <c r="C37" t="n">
-        <v>3845.931202281452</v>
+        <v>888.2776948471594</v>
       </c>
       <c r="D37" t="n">
-        <v>3682.614429408222</v>
+        <v>724.9609219739301</v>
       </c>
       <c r="E37" t="n">
-        <v>3516.406223561076</v>
+        <v>558.7527161267836</v>
       </c>
       <c r="F37" t="n">
-        <v>3344.544449335636</v>
+        <v>386.890941901344</v>
       </c>
       <c r="G37" t="n">
-        <v>3178.287479629868</v>
+        <v>220.6339721955762</v>
       </c>
       <c r="H37" t="n">
-        <v>3034.491211138023</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I37" t="n">
-        <v>2934.722642878299</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J37" t="n">
-        <v>2992.213971102457</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K37" t="n">
-        <v>3218.741572308294</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L37" t="n">
-        <v>3573.430893602715</v>
+        <v>741.0109641302445</v>
       </c>
       <c r="M37" t="n">
-        <v>3964.616688572966</v>
+        <v>1132.196759100495</v>
       </c>
       <c r="N37" t="n">
-        <v>4342.108199449001</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O37" t="n">
-        <v>4697.536328128765</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P37" t="n">
-        <v>4988.135540050665</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q37" t="n">
-        <v>5115.135670291427</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>5115.135670291427</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>5115.135670291427</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>4871.796322517327</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>4871.796322517327</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V37" t="n">
-        <v>4676.976398979054</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W37" t="n">
-        <v>4676.976398979054</v>
+        <v>1547.350328423678</v>
       </c>
       <c r="X37" t="n">
-        <v>4434.41250242486</v>
+        <v>1304.786431869483</v>
       </c>
       <c r="Y37" t="n">
-        <v>4208.069734114601</v>
+        <v>1078.443663559225</v>
       </c>
     </row>
     <row r="38">
@@ -7174,49 +7174,49 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K38" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2110.0395278175</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M38" t="n">
-        <v>3114.325629236558</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N38" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O38" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P38" t="n">
-        <v>4935.721337874071</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q38" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
         <v>2960.549862354846</v>
@@ -7262,19 +7262,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>1021.509065974867</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1021.509065974867</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q39" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R39" t="n">
         <v>1910.990343986338</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>881.4186312826794</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C40" t="n">
-        <v>709.4460681615953</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D40" t="n">
-        <v>546.1292952883661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E40" t="n">
-        <v>546.1292952883661</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F40" t="n">
-        <v>512.1245198631661</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G40" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H40" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7344,40 +7344,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976535</v>
+        <v>1509.688269976531</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656298</v>
+        <v>1865.116398656294</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578199</v>
+        <v>2155.715610578195</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818961</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.677127506134</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025269</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251169</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U40" t="n">
-        <v>1822.202732251169</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V40" t="n">
-        <v>1540.491264859198</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W40" t="n">
-        <v>1540.491264859198</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X40" t="n">
-        <v>1297.927368305003</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y40" t="n">
-        <v>1071.584599994745</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>839.4070255988738</v>
       </c>
       <c r="G41" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883224</v>
       </c>
       <c r="H41" t="n">
         <v>137.1995846623573</v>
@@ -7411,52 +7411,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J41" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K41" t="n">
         <v>1180.414480198223</v>
       </c>
       <c r="L41" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="M41" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.8188681099</v>
       </c>
       <c r="N41" t="n">
-        <v>3114.325629236558</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O41" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P41" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q41" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R41" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S41" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T41" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U41" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V41" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W41" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X41" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I42" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J42" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K42" t="n">
-        <v>692.7876399741681</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L42" t="n">
-        <v>1446.844867123559</v>
+        <v>1808.730580298577</v>
       </c>
       <c r="M42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P42" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q42" t="n">
         <v>1910.990343986338</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>326.3817789554925</v>
+        <v>373.4203922683193</v>
       </c>
       <c r="C43" t="n">
-        <v>326.3817789554925</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="D43" t="n">
-        <v>163.0650060822632</v>
+        <v>201.4478291472353</v>
       </c>
       <c r="E43" t="n">
         <v>102.3027134058285</v>
@@ -7569,10 +7569,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J43" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K43" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L43" t="n">
         <v>741.0109641302445</v>
@@ -7593,28 +7593,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R43" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S43" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T43" t="n">
-        <v>1822.202732251165</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U43" t="n">
-        <v>1542.018283751469</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V43" t="n">
-        <v>1260.306816359498</v>
+        <v>1307.345429672325</v>
       </c>
       <c r="W43" t="n">
-        <v>985.454412532011</v>
+        <v>1032.493025844838</v>
       </c>
       <c r="X43" t="n">
-        <v>742.8905159778161</v>
+        <v>789.9291292906429</v>
       </c>
       <c r="Y43" t="n">
-        <v>516.5477476675582</v>
+        <v>563.5863609803849</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C44" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D44" t="n">
         <v>1690.508147261616</v>
@@ -7648,52 +7648,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J44" t="n">
-        <v>464.9061722227241</v>
+        <v>464.906172222724</v>
       </c>
       <c r="K44" t="n">
-        <v>1054.158777558267</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L44" t="n">
-        <v>1983.783825177544</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M44" t="n">
-        <v>2988.069926596602</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N44" t="n">
-        <v>2988.069926596602</v>
+        <v>2988.069926596601</v>
       </c>
       <c r="O44" t="n">
-        <v>3833.214576747414</v>
+        <v>3833.214576747413</v>
       </c>
       <c r="P44" t="n">
-        <v>4541.493855905342</v>
+        <v>4541.493855905341</v>
       </c>
       <c r="Q44" t="n">
-        <v>4997.579335409525</v>
+        <v>4997.579335409524</v>
       </c>
       <c r="R44" t="n">
-        <v>5115.135670291427</v>
+        <v>5115.135670291426</v>
       </c>
       <c r="S44" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T44" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U44" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V44" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W44" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X44" t="n">
         <v>3365.887132399956</v>
       </c>
       <c r="Y44" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I45" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J45" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K45" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L45" t="n">
-        <v>692.7876399741681</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M45" t="n">
-        <v>1446.844867123559</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="P45" t="n">
-        <v>1446.844867123559</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q45" t="n">
         <v>1910.990343986338</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>675.4412927363924</v>
+        <v>440.5322462326803</v>
       </c>
       <c r="C46" t="n">
-        <v>675.4412927363924</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="D46" t="n">
-        <v>512.1245198631631</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="E46" t="n">
-        <v>512.1245198631631</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="F46" t="n">
-        <v>512.1245198631661</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G46" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H46" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I46" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J46" t="n">
-        <v>159.7940416299866</v>
+        <v>159.7940416299865</v>
       </c>
       <c r="K46" t="n">
-        <v>386.3216428358238</v>
+        <v>386.3216428358237</v>
       </c>
       <c r="L46" t="n">
         <v>741.0109641302445</v>
@@ -7830,28 +7830,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R46" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S46" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T46" t="n">
-        <v>1981.096277319999</v>
+        <v>1869.241345563992</v>
       </c>
       <c r="U46" t="n">
-        <v>1700.911828820303</v>
+        <v>1589.056897064296</v>
       </c>
       <c r="V46" t="n">
-        <v>1419.200361428332</v>
+        <v>1374.457283636686</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.347957600845</v>
+        <v>1099.604879809199</v>
       </c>
       <c r="X46" t="n">
-        <v>901.7840610466503</v>
+        <v>857.040983255004</v>
       </c>
       <c r="Y46" t="n">
-        <v>675.4412927363924</v>
+        <v>630.698214944746</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>519.5412919487788</v>
+        <v>519.541291948777</v>
       </c>
       <c r="L2" t="n">
         <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>39.73581606682197</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>521.0563139884136</v>
       </c>
       <c r="O2" t="n">
-        <v>405.9616325404839</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>521.3520529642008</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8057,28 +8057,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>506.1759249873028</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
-        <v>506.2917778681991</v>
+        <v>506.2917778681972</v>
       </c>
       <c r="M3" t="n">
-        <v>506.8734716662975</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
-        <v>122.5282489949851</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>413.741895007954</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>505.5475323587963</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
         <v>23.67291939414415</v>
@@ -8154,7 +8154,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P4" t="n">
-        <v>215.393196917838</v>
+        <v>215.3931969178304</v>
       </c>
       <c r="Q4" t="n">
         <v>24.61956276478495</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>395.6860795026527</v>
+        <v>102.4815180266284</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
         <v>593.8031749258255</v>
@@ -8239,7 +8239,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,31 +8291,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
-        <v>88.51522805109136</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>467.7777678727251</v>
       </c>
       <c r="P6" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
         <v>106.5207073584907</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K7" t="n">
         <v>249.7804132464869</v>
@@ -8455,19 +8455,19 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>569.51856287543</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>571.1449214366446</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
         <v>593.8031749258255</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>465.9489063640446</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
         <v>977.3272420480539</v>
@@ -8701,19 +8701,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
-        <v>891.0724241548241</v>
+        <v>882.2851839951743</v>
       </c>
       <c r="P11" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>472.1756697257294</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,13 +8768,13 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K12" t="n">
-        <v>391.6870344996402</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>419.3774956265374</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,7 +8783,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8929,16 +8929,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>659.2874778330913</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
         <v>891.0724241548241</v>
@@ -8947,7 +8947,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>496.8170781441769</v>
+        <v>369.2860653765454</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
-        <v>299.8008876868062</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L15" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M15" t="n">
         <v>23.09678051232798</v>
@@ -9026,10 +9026,10 @@
         <v>745.2028786174529</v>
       </c>
       <c r="Q15" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>268.1550667350194</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>758.5002654165255</v>
@@ -9172,10 +9172,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>517.6546514635598</v>
       </c>
       <c r="N17" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9184,10 +9184,10 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>292.2790261091175</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9254,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>749.810964578424</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,19 +9409,19 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>924.3306556055956</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>238.1216346371742</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9476,28 +9476,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N21" t="n">
-        <v>21.34302821354166</v>
+        <v>499.6833922165333</v>
       </c>
       <c r="O21" t="n">
-        <v>281.4457336203087</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
         <v>758.5002654165255</v>
@@ -9646,13 +9646,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O23" t="n">
-        <v>262.439123722643</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
         <v>753.0089771212694</v>
@@ -9661,7 +9661,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
-        <v>22.51508671422956</v>
+        <v>247.6270611911683</v>
       </c>
       <c r="M24" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9877,10 +9877,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M26" t="n">
         <v>1051.861668373228</v>
@@ -9892,13 +9892,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,25 +9950,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
-        <v>22.51508671422956</v>
+        <v>72.59316121846759</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P27" t="n">
         <v>21.77084120482866</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L29" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,10 +10129,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>466.324307620685</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
         <v>153.7764225027789</v>
@@ -10199,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>398.5805034488242</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10363,16 +10363,16 @@
         <v>1023.391803124043</v>
       </c>
       <c r="O32" t="n">
-        <v>891.0724241548241</v>
+        <v>716.4444307130257</v>
       </c>
       <c r="P32" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>126.4645803159205</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>952.6858336296069</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>56.96224792397994</v>
       </c>
       <c r="N35" t="n">
         <v>1023.391803124043</v>
@@ -10609,7 +10609,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>618.848654609434</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>400.8313794692496</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1022.176719479639</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
@@ -10685,10 +10685,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,22 +10828,22 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
         <v>1051.861668373228</v>
       </c>
       <c r="N38" t="n">
-        <v>1023.391803124043</v>
+        <v>848.7638096822436</v>
       </c>
       <c r="O38" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.60750039798609</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
         <v>153.7764225027789</v>
@@ -10910,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>951.5880457335786</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O39" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>196.7283130837754</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R39" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,16 +11065,16 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646197</v>
       </c>
       <c r="M41" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>763.5414113871921</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
         <v>618.848654609434</v>
       </c>
       <c r="L42" t="n">
-        <v>784.1890535317962</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>126.3894711060262</v>
       </c>
       <c r="N42" t="n">
         <v>21.34302821354166</v>
@@ -11159,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11299,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>630.9692526488932</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N44" t="n">
-        <v>37.27962283444602</v>
+        <v>924.1790155406089</v>
       </c>
       <c r="O44" t="n">
         <v>891.0724241548241</v>
@@ -11372,22 +11372,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>618.848654609434</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>784.7707473298946</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
@@ -11396,7 +11396,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
         <v>23.67291939414415</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>178.7962542730998</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23661,19 +23661,19 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>54.46667656133671</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>71.98949189918861</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>2.540411739665473</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>227.0530357843493</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>71.9894918991925</v>
       </c>
       <c r="G25" t="n">
         <v>164.5944000087102</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>233.6730970436894</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>39.70207431754633</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -24651,7 +24651,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>18.44967133088781</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24888,13 +24888,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>75.43346327040824</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>25.21035960507699</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>86.02262841516148</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>136.4784288122373</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,13 +25788,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>104.3914540390047</v>
+        <v>66.39245920468228</v>
       </c>
       <c r="F43" t="n">
         <v>170.1431564831852</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>157.3046096181456</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>66.44073542471733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>549041.0563372027</v>
+        <v>549041.0563372028</v>
       </c>
     </row>
     <row r="7">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>549041.0563372027</v>
+        <v>549041.0563372025</v>
       </c>
     </row>
   </sheetData>
@@ -26328,34 +26328,34 @@
         <v>491776.6027452663</v>
       </c>
       <c r="G2" t="n">
-        <v>491776.6027452661</v>
+        <v>491776.6027452665</v>
       </c>
       <c r="H2" t="n">
-        <v>491776.6027452662</v>
+        <v>491776.6027452665</v>
       </c>
       <c r="I2" t="n">
+        <v>491776.6027452665</v>
+      </c>
+      <c r="J2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="J2" t="n">
-        <v>491776.6027452662</v>
-      </c>
       <c r="K2" t="n">
-        <v>491776.6027452664</v>
+        <v>491776.6027452665</v>
       </c>
       <c r="L2" t="n">
         <v>491776.6027452663</v>
       </c>
       <c r="M2" t="n">
+        <v>491776.6027452662</v>
+      </c>
+      <c r="N2" t="n">
         <v>491776.6027452663</v>
       </c>
-      <c r="N2" t="n">
-        <v>491776.602745266</v>
-      </c>
       <c r="O2" t="n">
-        <v>491776.6027452662</v>
+        <v>491776.6027452664</v>
       </c>
       <c r="P2" t="n">
-        <v>491776.6027452665</v>
+        <v>491776.6027452663</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162124.6960695917</v>
+        <v>162124.6960695911</v>
       </c>
       <c r="C3" t="n">
-        <v>23406.83367361173</v>
+        <v>23406.83367361233</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215739.3565566405</v>
+        <v>215739.3565566406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126577.2685802892</v>
+        <v>126577.2685802887</v>
       </c>
       <c r="K3" t="n">
-        <v>18646.6003570194</v>
+        <v>18646.60035701988</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187607.6695456097</v>
+        <v>187607.6695456101</v>
       </c>
       <c r="C4" t="n">
         <v>173998.4022791778</v>
       </c>
       <c r="D4" t="n">
-        <v>173998.4022791778</v>
+        <v>173998.4022791779</v>
       </c>
       <c r="E4" t="n">
         <v>58064.51385187964</v>
@@ -26432,10 +26432,10 @@
         <v>58064.51385187964</v>
       </c>
       <c r="G4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187965</v>
       </c>
       <c r="H4" t="n">
-        <v>58064.51385187964</v>
+        <v>58064.51385187959</v>
       </c>
       <c r="I4" t="n">
         <v>58064.51385187964</v>
@@ -26456,7 +26456,7 @@
         <v>58064.51385187964</v>
       </c>
       <c r="O4" t="n">
-        <v>58064.51385187959</v>
+        <v>58064.51385187964</v>
       </c>
       <c r="P4" t="n">
         <v>58064.51385187964</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63041.22282216135</v>
+        <v>63041.22282216123</v>
       </c>
       <c r="C5" t="n">
         <v>67446.25103742813</v>
@@ -26478,13 +26478,13 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="F5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="G5" t="n">
-        <v>77750.06218842967</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="H5" t="n">
         <v>77750.06218842969</v>
@@ -26502,16 +26502,16 @@
         <v>77750.06218842969</v>
       </c>
       <c r="M5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="O5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
       <c r="P5" t="n">
-        <v>77750.06218842969</v>
+        <v>77750.06218842967</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>96863.74607240502</v>
+        <v>96863.74607240535</v>
       </c>
       <c r="C6" t="n">
-        <v>244785.8475195502</v>
+        <v>244785.8475195495</v>
       </c>
       <c r="D6" t="n">
         <v>268192.6811931619</v>
       </c>
       <c r="E6" t="n">
-        <v>140222.6701483166</v>
+        <v>140171.6394861322</v>
       </c>
       <c r="F6" t="n">
-        <v>355962.026704957</v>
+        <v>355910.9960427727</v>
       </c>
       <c r="G6" t="n">
-        <v>355962.0267049568</v>
+        <v>355910.9960427729</v>
       </c>
       <c r="H6" t="n">
-        <v>355962.0267049569</v>
+        <v>355910.9960427729</v>
       </c>
       <c r="I6" t="n">
-        <v>355962.026704957</v>
+        <v>355910.9960427728</v>
       </c>
       <c r="J6" t="n">
-        <v>229384.7581246676</v>
+        <v>229333.727462484</v>
       </c>
       <c r="K6" t="n">
-        <v>337315.4263479377</v>
+        <v>337264.395685753</v>
       </c>
       <c r="L6" t="n">
-        <v>355962.026704957</v>
+        <v>355910.9960427727</v>
       </c>
       <c r="M6" t="n">
-        <v>175898.1552497894</v>
+        <v>175847.124587605</v>
       </c>
       <c r="N6" t="n">
-        <v>355962.0267049567</v>
+        <v>355910.9960427727</v>
       </c>
       <c r="O6" t="n">
-        <v>355962.026704957</v>
+        <v>355910.9960427728</v>
       </c>
       <c r="P6" t="n">
-        <v>355962.0267049571</v>
+        <v>355910.9960427727</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
         <v>556.2278131155941</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="C4" t="n">
-        <v>72.45112196162461</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162461</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="K4" t="n">
-        <v>72.45112196162461</v>
+        <v>72.45112196162648</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>722.5561044572624</v>
+        <v>722.5561044572627</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>281.3387714463898</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>75.57816325185161</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>74.79459281675783</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>22.87870268301266</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>162.8640785093685</v>
       </c>
       <c r="C5" t="n">
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>98.65879175493131</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>32.71530866769297</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>5.929417286846842</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,10 +27855,10 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>304.4193999494619</v>
+        <v>201.9824129405226</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>400</v>
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>65.36943063985649</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>53.328125375718</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-9.189731873468358e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.304553167390154</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="O2" t="n">
-        <v>368.5706731844598</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>483.7766911539695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>483.7766911539695</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>483.7766911539695</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="M3" t="n">
-        <v>483.7766911539695</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>101.1852207814434</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>390.5700052857318</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>483.7766911539676</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34874,7 +34874,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P4" t="n">
-        <v>193.0123962598515</v>
+        <v>193.0123962598439</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>366.2661200170662</v>
+        <v>73.06155854104185</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>144.2794790315872</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>556.2278131155941</v>
@@ -34959,7 +34959,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,31 +35011,31 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>67.90411371775802</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
         <v>82.84778796434657</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K7" t="n">
         <v>228.8157587937749</v>
@@ -35175,19 +35175,19 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>533.7539620806207</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>533.7539620806206</v>
       </c>
       <c r="P8" t="n">
         <v>556.2278131155941</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>444.6058781505029</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
         <v>939.015199615431</v>
@@ -35421,19 +35421,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>853.6814647988001</v>
+        <v>844.8942246391501</v>
       </c>
       <c r="P11" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>436.0509951211314</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,13 +35488,13 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K12" t="n">
-        <v>369.2878006663069</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>623.522877038282</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>853.6814647988001</v>
@@ -35667,7 +35667,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>460.6924035395789</v>
+        <v>333.1613907719473</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K15" t="n">
-        <v>277.4016538534729</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35746,10 +35746,10 @@
         <v>723.4320374126243</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,7 +35810,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L16" t="n">
-        <v>358.2720417115361</v>
+        <v>358.2720417115399</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>238.7351072494329</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>722.7356646217162</v>
@@ -35892,10 +35892,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>480.2233885641281</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35904,10 +35904,10 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>269.8797922757842</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>726.6390748562018</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36129,19 +36129,19 @@
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>200.7306752811501</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
         <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>478.3403640029916</v>
       </c>
       <c r="O21" t="n">
-        <v>258.2738438980865</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>395.1371666366211</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
         <v>381.3045564404402</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
         <v>722.7356646217162</v>
@@ -36366,13 +36366,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O23" t="n">
-        <v>225.0481643666189</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
         <v>715.433615311038</v>
@@ -36381,7 +36381,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>225.1119744769387</v>
       </c>
       <c r="M24" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L26" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M26" t="n">
         <v>1014.430405473796</v>
@@ -36612,13 +36612,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>50.07807450423802</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36831,16 +36831,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L29" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,10 +36849,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>428.7489458104537</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
         <v>118.7437726079824</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>376.8096622439955</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37083,16 +37083,16 @@
         <v>986.1121802895968</v>
       </c>
       <c r="O32" t="n">
-        <v>853.6814647988001</v>
+        <v>679.0534713570016</v>
       </c>
       <c r="P32" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>914.373791196984</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>19.53098502454813</v>
       </c>
       <c r="N35" t="n">
         <v>986.1121802895968</v>
@@ -37329,7 +37329,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>596.4494207761006</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>377.7345989569216</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1000.833691266097</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37548,22 +37548,22 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1014.430405473796</v>
       </c>
       <c r="N38" t="n">
-        <v>986.1121802895968</v>
+        <v>811.4841868477976</v>
       </c>
       <c r="O38" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
-        <v>62.48282579338804</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
         <v>118.7437726079824</v>
@@ -37630,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>928.4912652212506</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O39" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>174.9574718789467</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404443</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
@@ -37785,16 +37785,16 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319968</v>
       </c>
       <c r="M41" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>726.1504520311679</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
         <v>596.4494207761006</v>
       </c>
       <c r="L42" t="n">
-        <v>761.6739668175666</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>103.2926905936983</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>595.2046518540839</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>886.8993927061629</v>
       </c>
       <c r="O44" t="n">
         <v>853.6814647988001</v>
@@ -38092,22 +38092,22 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>596.4494207761006</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>761.6739668175666</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
